--- a/data/simulated_data (1).xlsx
+++ b/data/simulated_data (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\capstone-project1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\capstone-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC5481A-3B10-48A2-9CE6-FF807A2B6482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A778933-BE1B-4301-ABDB-E27DF508542E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="837" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="837" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="equipment" sheetId="3" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="stats_abnormal_quarterly" sheetId="11" r:id="rId9"/>
     <sheet name="stats_abnormal_yearly" sheetId="12" r:id="rId10"/>
     <sheet name="alert_history" sheetId="13" r:id="rId11"/>
+    <sheet name="user_preferences" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6730" uniqueCount="212">
   <si>
     <t>user1</t>
   </si>
@@ -688,6 +689,40 @@
     <t>downtime_sec</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>is_admin</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>bot</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-Hant</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsible_area</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_active</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -855,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -899,6 +934,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -1266,8 +1303,8 @@
     <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="4"/>
       <c r="F23" s="7"/>
     </row>
@@ -15461,6 +15498,71 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B9EBA2-12F9-42F5-B270-6781EA6FCBDC}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24">
+        <v>45932.722962962966</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -74685,7 +74787,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>

--- a/data/simulated_data (1).xlsx
+++ b/data/simulated_data (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\capstone-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A778933-BE1B-4301-ABDB-E27DF508542E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64E3FD-0F85-4102-B123-9C2760B656CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="837" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="837" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="equipment" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6730" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6730" uniqueCount="213">
   <si>
     <t>user1</t>
   </si>
@@ -721,6 +721,10 @@
   </si>
   <si>
     <t>last_active</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>severity_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -15505,7 +15509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B9EBA2-12F9-42F5-B270-6781EA6FCBDC}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -53113,8 +53117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -53166,7 +53170,7 @@
         <v>201</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>

--- a/data/simulated_data (1).xlsx
+++ b/data/simulated_data (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\capstone-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64E3FD-0F85-4102-B123-9C2760B656CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71CDB51-DDC4-40BD-A059-2E7C27C0128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="837" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" tabRatio="837" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="equipment" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6730" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6729" uniqueCount="212">
   <si>
     <t>user1</t>
   </si>
@@ -627,10 +627,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>downtime_min</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resolved_time</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -686,10 +682,6 @@
     <t>downtime_hrs</t>
   </si>
   <si>
-    <t>downtime_sec</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -726,6 +718,9 @@
   <si>
     <t>severity_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>downtime_sec</t>
   </si>
 </sst>
 </file>
@@ -894,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -942,6 +937,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2342,22 +2340,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>192</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="2"/>
@@ -9526,16 +9524,16 @@
         <v>63</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>65</v>
@@ -15523,39 +15521,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>207</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -53115,10 +53113,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -53130,15 +53128,14 @@
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" customWidth="1"/>
-    <col min="14" max="28" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" customWidth="1"/>
+    <col min="13" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>181</v>
       </c>
@@ -53161,21 +53158,18 @@
         <v>184</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="9" t="s">
         <v>185</v>
       </c>
+      <c r="I1" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="J1" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>212</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="12">
         <v>45660</v>
       </c>
@@ -53200,17 +53194,15 @@
       <c r="H2" s="10">
         <v>45660.438379629632</v>
       </c>
-      <c r="I2" s="4">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="27">
+        <v>992</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -53225,9 +53217,8 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="12">
         <v>45662</v>
       </c>
@@ -53252,17 +53243,15 @@
       <c r="H3" s="10">
         <v>45662.763680555552</v>
       </c>
-      <c r="I3" s="4">
-        <v>36</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="27">
+        <v>2197</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -53277,9 +53266,8 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="12">
         <v>45662</v>
       </c>
@@ -53304,17 +53292,15 @@
       <c r="H4" s="10">
         <v>45662.773402777777</v>
       </c>
-      <c r="I4" s="4">
-        <v>36</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="27">
+        <v>2149</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -53329,9 +53315,8 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="12">
         <v>45667</v>
       </c>
@@ -53356,17 +53341,15 @@
       <c r="H5" s="10">
         <v>45667.711006944446</v>
       </c>
-      <c r="I5" s="4">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="I5" s="27">
+        <v>667</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -53381,9 +53364,8 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="12">
         <v>45669</v>
       </c>
@@ -53408,17 +53390,15 @@
       <c r="H6" s="10">
         <v>45669.651458333334</v>
       </c>
-      <c r="I6" s="4">
-        <v>16</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="I6" s="27">
+        <v>913</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -53433,9 +53413,8 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="12">
         <v>45669</v>
       </c>
@@ -53460,17 +53439,15 @@
       <c r="H7" s="10">
         <v>45669.539652777778</v>
       </c>
-      <c r="I7" s="4">
-        <v>58</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="I7" s="27">
+        <v>3456</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -53485,9 +53462,8 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="12">
         <v>45671</v>
       </c>
@@ -53512,17 +53488,15 @@
       <c r="H8" s="10">
         <v>45671.382534722223</v>
       </c>
-      <c r="I8" s="4">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="I8" s="27">
+        <v>1476</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -53537,9 +53511,8 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="12">
         <v>45677</v>
       </c>
@@ -53564,17 +53537,15 @@
       <c r="H9" s="10">
         <v>45677.434212962966</v>
       </c>
-      <c r="I9" s="4">
-        <v>41</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="I9" s="27">
+        <v>2471</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -53589,9 +53560,8 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="12">
         <v>45679</v>
       </c>
@@ -53616,17 +53586,15 @@
       <c r="H10" s="10">
         <v>45679.571423611109</v>
       </c>
-      <c r="I10" s="4">
-        <v>51</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="I10" s="27">
+        <v>3053</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -53641,9 +53609,8 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="12">
         <v>45679</v>
       </c>
@@ -53668,17 +53635,15 @@
       <c r="H11" s="10">
         <v>45679.448680555557</v>
       </c>
-      <c r="I11" s="4">
-        <v>24</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="I11" s="27">
+        <v>1424</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -53693,9 +53658,8 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="12">
         <v>45680</v>
       </c>
@@ -53720,17 +53684,15 @@
       <c r="H12" s="10">
         <v>45680.718935185185</v>
       </c>
-      <c r="I12" s="4">
-        <v>43</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="I12" s="27">
+        <v>2566</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -53745,9 +53707,8 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="12">
         <v>45681</v>
       </c>
@@ -53772,17 +53733,15 @@
       <c r="H13" s="10">
         <v>45681.422407407408</v>
       </c>
-      <c r="I13" s="4">
-        <v>31</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="I13" s="27">
+        <v>1832</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -53797,9 +53756,8 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="12">
         <v>45693</v>
       </c>
@@ -53824,17 +53782,15 @@
       <c r="H14" s="10">
         <v>45693.417951388888</v>
       </c>
-      <c r="I14" s="4">
-        <v>29</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="I14" s="27">
+        <v>1786</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -53849,9 +53805,8 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="12">
         <v>45698</v>
       </c>
@@ -53876,17 +53831,15 @@
       <c r="H15" s="10">
         <v>45698.72587962963</v>
       </c>
-      <c r="I15" s="4">
-        <v>41</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="I15" s="27">
+        <v>2446</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -53901,9 +53854,8 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="12">
         <v>45698</v>
       </c>
@@ -53928,17 +53880,15 @@
       <c r="H16" s="10">
         <v>45698.711006944446</v>
       </c>
-      <c r="I16" s="4">
-        <v>31</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="I16" s="27">
+        <v>1853</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -53953,9 +53903,8 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="12">
         <v>45699</v>
       </c>
@@ -53980,17 +53929,15 @@
       <c r="H17" s="10">
         <v>45699.757233796299</v>
       </c>
-      <c r="I17" s="4">
-        <v>34</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="I17" s="27">
+        <v>2007</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -54005,9 +53952,8 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="12">
         <v>45701</v>
       </c>
@@ -54032,17 +53978,15 @@
       <c r="H18" s="10">
         <v>45701.698796296296</v>
       </c>
-      <c r="I18" s="4">
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="I18" s="27">
+        <v>1501</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -54057,9 +54001,8 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="12">
         <v>45701</v>
       </c>
@@ -54084,17 +54027,15 @@
       <c r="H19" s="10">
         <v>45701.493819444448</v>
       </c>
-      <c r="I19" s="4">
-        <v>27</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="I19" s="27">
+        <v>1621</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -54109,9 +54050,8 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="12">
         <v>45705</v>
       </c>
@@ -54136,17 +54076,15 @@
       <c r="H20" s="10">
         <v>45705.740567129629</v>
       </c>
-      <c r="I20" s="4">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="I20" s="27">
+        <v>581</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -54161,9 +54099,8 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="12">
         <v>45715</v>
       </c>
@@ -54188,17 +54125,15 @@
       <c r="H21" s="10">
         <v>45715.674490740741</v>
       </c>
-      <c r="I21" s="4">
-        <v>36</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="I21" s="27">
+        <v>2171</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -54213,9 +54148,8 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="12">
         <v>45717</v>
       </c>
@@ -54240,17 +54174,15 @@
       <c r="H22" s="10">
         <v>45717.393437500003</v>
       </c>
-      <c r="I22" s="4">
-        <v>31</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="I22" s="27">
+        <v>1863</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -54265,9 +54197,8 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="12">
         <v>45718</v>
       </c>
@@ -54292,17 +54223,15 @@
       <c r="H23" s="10">
         <v>45718.620520833334</v>
       </c>
-      <c r="I23" s="4">
-        <v>43</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="I23" s="27">
+        <v>2608</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -54317,9 +54246,8 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="12">
         <v>45719</v>
       </c>
@@ -54344,17 +54272,15 @@
       <c r="H24" s="10">
         <v>45719.422291666669</v>
       </c>
-      <c r="I24" s="4">
-        <v>13</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="I24" s="27">
+        <v>781</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -54369,9 +54295,8 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="12">
         <v>45720</v>
       </c>
@@ -54396,17 +54321,15 @@
       <c r="H25" s="10">
         <v>45720.494629629633</v>
       </c>
-      <c r="I25" s="4">
-        <v>18</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="I25" s="27">
+        <v>1074</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -54421,9 +54344,8 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="12">
         <v>45721</v>
       </c>
@@ -54448,17 +54370,15 @@
       <c r="H26" s="10">
         <v>45721.47923611111</v>
       </c>
-      <c r="I26" s="4">
-        <v>53</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="I26" s="27">
+        <v>3181</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -54473,9 +54393,8 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="12">
         <v>45724</v>
       </c>
@@ -54500,17 +54419,15 @@
       <c r="H27" s="10">
         <v>45724.800486111111</v>
       </c>
-      <c r="I27" s="4">
-        <v>18</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="I27" s="27">
+        <v>1107</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -54525,9 +54442,8 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="12">
         <v>45734</v>
       </c>
@@ -54552,17 +54468,15 @@
       <c r="H28" s="10">
         <v>45734.555937500001</v>
       </c>
-      <c r="I28" s="4">
-        <v>40</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="I28" s="27">
+        <v>2375</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -54577,9 +54491,8 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
       <c r="A29" s="12">
         <v>45735</v>
       </c>
@@ -54604,17 +54517,15 @@
       <c r="H29" s="10">
         <v>45735.741956018515</v>
       </c>
-      <c r="I29" s="4">
-        <v>33</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="I29" s="27">
+        <v>1990</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -54629,9 +54540,8 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="12">
         <v>45749</v>
       </c>
@@ -54656,17 +54566,15 @@
       <c r="H30" s="10">
         <v>45749.631145833337</v>
       </c>
-      <c r="I30" s="4">
-        <v>36</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="I30" s="27">
+        <v>2206</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -54681,9 +54589,8 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="12">
         <v>45752</v>
       </c>
@@ -54708,17 +54615,15 @@
       <c r="H31" s="10">
         <v>45752.55673611111</v>
       </c>
-      <c r="I31" s="4">
-        <v>40</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="I31" s="27">
+        <v>2420</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -54733,9 +54638,8 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="12">
         <v>45755</v>
       </c>
@@ -54760,17 +54664,15 @@
       <c r="H32" s="10">
         <v>45755.584618055553</v>
       </c>
-      <c r="I32" s="4">
-        <v>33</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="I32" s="27">
+        <v>2009</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -54785,9 +54687,8 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="12">
         <v>45755</v>
       </c>
@@ -54812,17 +54713,15 @@
       <c r="H33" s="10">
         <v>45755.559618055559</v>
       </c>
-      <c r="I33" s="4">
-        <v>25</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="I33" s="27">
+        <v>1521</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -54837,9 +54736,8 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="12">
         <v>45759</v>
       </c>
@@ -54864,17 +54762,15 @@
       <c r="H34" s="10">
         <v>45759.661597222221</v>
       </c>
-      <c r="I34" s="4">
-        <v>57</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4" t="s">
+      <c r="I34" s="27">
+        <v>3440</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -54889,9 +54785,8 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="12">
         <v>45762</v>
       </c>
@@ -54916,17 +54811,15 @@
       <c r="H35" s="10">
         <v>45762.70107638889</v>
       </c>
-      <c r="I35" s="4">
-        <v>28</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="I35" s="27">
+        <v>1669</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -54941,9 +54834,8 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="12">
         <v>45765</v>
       </c>
@@ -54968,17 +54860,15 @@
       <c r="H36" s="10">
         <v>45765.796122685184</v>
       </c>
-      <c r="I36" s="4">
-        <v>13</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="I36" s="27">
+        <v>752</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -54993,9 +54883,8 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="12">
         <v>45765</v>
       </c>
@@ -55020,17 +54909,15 @@
       <c r="H37" s="10">
         <v>45765.49690972222</v>
       </c>
-      <c r="I37" s="4">
-        <v>52</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="4" t="s">
+      <c r="I37" s="27">
+        <v>3123</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -55045,9 +54932,8 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="12">
         <v>45768</v>
       </c>
@@ -55072,17 +54958,15 @@
       <c r="H38" s="10">
         <v>45768.609212962961</v>
       </c>
-      <c r="I38" s="4">
-        <v>17</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="I38" s="27">
+        <v>992</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -55097,9 +54981,8 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="12">
         <v>45771</v>
       </c>
@@ -55124,17 +55007,15 @@
       <c r="H39" s="10">
         <v>45771.579351851855</v>
       </c>
-      <c r="I39" s="4">
-        <v>28</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4" t="s">
+      <c r="I39" s="27">
+        <v>1666</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -55149,9 +55030,8 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="12">
         <v>45779</v>
       </c>
@@ -55176,17 +55056,15 @@
       <c r="H40" s="10">
         <v>45779.394131944442</v>
       </c>
-      <c r="I40" s="4">
-        <v>38</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4" t="s">
+      <c r="I40" s="27">
+        <v>2269</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -55201,9 +55079,8 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="12">
         <v>45779</v>
       </c>
@@ -55228,17 +55105,15 @@
       <c r="H41" s="10">
         <v>45779.755624999998</v>
       </c>
-      <c r="I41" s="4">
-        <v>13</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="I41" s="27">
+        <v>781</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -55253,9 +55128,8 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1">
       <c r="A42" s="12">
         <v>45779</v>
       </c>
@@ -55280,17 +55154,15 @@
       <c r="H42" s="10">
         <v>45779.605740740742</v>
       </c>
-      <c r="I42" s="4">
-        <v>12</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4" t="s">
+      <c r="I42" s="27">
+        <v>714</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -55305,9 +55177,8 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1">
       <c r="A43" s="12">
         <v>45782</v>
       </c>
@@ -55332,17 +55203,15 @@
       <c r="H43" s="10">
         <v>45782.661296296297</v>
       </c>
-      <c r="I43" s="4">
-        <v>16</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" s="4" t="s">
+      <c r="I43" s="27">
+        <v>961</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -55357,9 +55226,8 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1">
       <c r="A44" s="12">
         <v>45783</v>
       </c>
@@ -55384,17 +55252,15 @@
       <c r="H44" s="10">
         <v>45783.563263888886</v>
       </c>
-      <c r="I44" s="4">
-        <v>46</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" s="4" t="s">
+      <c r="I44" s="27">
+        <v>2744</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -55409,9 +55275,8 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1">
       <c r="A45" s="12">
         <v>45786</v>
       </c>
@@ -55436,17 +55301,15 @@
       <c r="H45" s="10">
         <v>45786.597291666665</v>
       </c>
-      <c r="I45" s="4">
-        <v>16</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4" t="s">
+      <c r="I45" s="27">
+        <v>951</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -55461,9 +55324,8 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1">
       <c r="A46" s="12">
         <v>45788</v>
       </c>
@@ -55488,17 +55350,15 @@
       <c r="H46" s="10">
         <v>45788.433518518519</v>
       </c>
-      <c r="I46" s="4">
-        <v>20</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4" t="s">
+      <c r="I46" s="27">
+        <v>1163</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -55513,9 +55373,8 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1">
       <c r="A47" s="12">
         <v>45789</v>
       </c>
@@ -55540,17 +55399,15 @@
       <c r="H47" s="10">
         <v>45789.390462962961</v>
       </c>
-      <c r="I47" s="4">
-        <v>26</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4" t="s">
+      <c r="I47" s="27">
+        <v>1518</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -55565,9 +55422,8 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-    </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1">
       <c r="A48" s="12">
         <v>45794</v>
       </c>
@@ -55592,17 +55448,15 @@
       <c r="H48" s="10">
         <v>45794.530243055553</v>
       </c>
-      <c r="I48" s="4">
-        <v>10</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="I48" s="27">
+        <v>611</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -55617,9 +55471,8 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-    </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1">
       <c r="A49" s="12">
         <v>45795</v>
       </c>
@@ -55644,17 +55497,15 @@
       <c r="H49" s="10">
         <v>45795.616354166668</v>
       </c>
-      <c r="I49" s="4">
-        <v>13</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4" t="s">
+      <c r="I49" s="27">
+        <v>760</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -55669,9 +55520,8 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-    </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1">
       <c r="A50" s="12">
         <v>45809</v>
       </c>
@@ -55696,17 +55546,15 @@
       <c r="H50" s="10">
         <v>45809.478159722225</v>
       </c>
-      <c r="I50" s="4">
-        <v>16</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4" t="s">
+      <c r="I50" s="27">
+        <v>949</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -55721,9 +55569,8 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-    </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1">
       <c r="A51" s="12">
         <v>45820</v>
       </c>
@@ -55748,17 +55595,15 @@
       <c r="H51" s="10">
         <v>45820.76934027778</v>
       </c>
-      <c r="I51" s="4">
-        <v>29</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="I51" s="27">
+        <v>1747</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -55773,9 +55618,8 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-    </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1">
       <c r="A52" s="12">
         <v>45820</v>
       </c>
@@ -55800,17 +55644,15 @@
       <c r="H52" s="10">
         <v>45820.603541666664</v>
       </c>
-      <c r="I52" s="4">
-        <v>24</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="I52" s="27">
+        <v>1388</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -55825,9 +55667,8 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-    </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1">
       <c r="A53" s="12">
         <v>45821</v>
       </c>
@@ -55852,17 +55693,15 @@
       <c r="H53" s="10">
         <v>45821.391157407408</v>
       </c>
-      <c r="I53" s="4">
-        <v>58</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4" t="s">
+      <c r="I53" s="27">
+        <v>3438</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -55877,9 +55716,8 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-    </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1">
       <c r="A54" s="12">
         <v>45824</v>
       </c>
@@ -55904,17 +55742,15 @@
       <c r="H54" s="10">
         <v>45824.777962962966</v>
       </c>
-      <c r="I54" s="4">
-        <v>37</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4" t="s">
+      <c r="I54" s="27">
+        <v>2192</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -55929,9 +55765,8 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-    </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1">
       <c r="A55" s="12">
         <v>45830</v>
       </c>
@@ -55956,17 +55791,15 @@
       <c r="H55" s="10">
         <v>45830.526180555556</v>
       </c>
-      <c r="I55" s="4">
-        <v>32</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4" t="s">
+      <c r="I55" s="27">
+        <v>1909</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -55981,9 +55814,8 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1">
       <c r="A56" s="12">
         <v>45835</v>
       </c>
@@ -56008,17 +55840,15 @@
       <c r="H56" s="10">
         <v>45835.349895833337</v>
       </c>
-      <c r="I56" s="4">
-        <v>10</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="I56" s="27">
+        <v>646</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -56033,9 +55863,8 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1">
       <c r="A57" s="12">
         <v>45853</v>
       </c>
@@ -56060,17 +55889,15 @@
       <c r="H57" s="10">
         <v>45853.584513888891</v>
       </c>
-      <c r="I57" s="4">
-        <v>41</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="I57" s="27">
+        <v>2480</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -56085,9 +55912,8 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-    </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1">
       <c r="A58" s="12">
         <v>45854</v>
       </c>
@@ -56112,17 +55938,15 @@
       <c r="H58" s="10">
         <v>45854.448206018518</v>
       </c>
-      <c r="I58" s="4">
-        <v>49</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4" t="s">
+      <c r="I58" s="27">
+        <v>2935</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -56137,9 +55961,8 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1">
       <c r="A59" s="12">
         <v>45855</v>
       </c>
@@ -56164,17 +55987,15 @@
       <c r="H59" s="10">
         <v>45855.771319444444</v>
       </c>
-      <c r="I59" s="4">
-        <v>39</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4" t="s">
+      <c r="I59" s="27">
+        <v>2352</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -56189,9 +56010,8 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-    </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1">
       <c r="A60" s="12">
         <v>45857</v>
       </c>
@@ -56216,17 +56036,15 @@
       <c r="H60" s="10">
         <v>45857.600069444445</v>
       </c>
-      <c r="I60" s="4">
-        <v>13</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" s="4" t="s">
+      <c r="I60" s="27">
+        <v>771</v>
+      </c>
+      <c r="J60" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -56241,9 +56059,8 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-    </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1">
       <c r="A61" s="12">
         <v>45857</v>
       </c>
@@ -56268,17 +56085,15 @@
       <c r="H61" s="10">
         <v>45857.494513888887</v>
       </c>
-      <c r="I61" s="4">
-        <v>22</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" s="4" t="s">
+      <c r="I61" s="27">
+        <v>1311</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -56293,9 +56108,8 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-    </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1">
       <c r="A62" s="12">
         <v>45858</v>
       </c>
@@ -56320,17 +56134,15 @@
       <c r="H62" s="10">
         <v>45858.522013888891</v>
       </c>
-      <c r="I62" s="4">
-        <v>29</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" s="4" t="s">
+      <c r="I62" s="27">
+        <v>1729</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -56345,9 +56157,8 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
-    </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1">
       <c r="A63" s="12">
         <v>45859</v>
       </c>
@@ -56372,17 +56183,15 @@
       <c r="H63" s="10">
         <v>45859.708819444444</v>
       </c>
-      <c r="I63" s="4">
-        <v>22</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="I63" s="27">
+        <v>1340</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -56397,9 +56206,8 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
-    </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1">
       <c r="A64" s="12">
         <v>45861</v>
       </c>
@@ -56424,17 +56232,15 @@
       <c r="H64" s="10">
         <v>45861.601770833331</v>
       </c>
-      <c r="I64" s="4">
-        <v>42</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="I64" s="27">
+        <v>2538</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -56449,9 +56255,8 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
-    </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:27" ht="15.75" customHeight="1">
       <c r="A65" s="12">
         <v>45861</v>
       </c>
@@ -56476,17 +56281,15 @@
       <c r="H65" s="10">
         <v>45861.502962962964</v>
       </c>
-      <c r="I65" s="4">
-        <v>46</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4" t="s">
+      <c r="I65" s="27">
+        <v>2746</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -56501,9 +56304,8 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-    </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1">
       <c r="A66" s="12">
         <v>45864</v>
       </c>
@@ -56528,17 +56330,15 @@
       <c r="H66" s="10">
         <v>45864.699097222219</v>
       </c>
-      <c r="I66" s="4">
-        <v>11</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66" s="4" t="s">
+      <c r="I66" s="27">
+        <v>697</v>
+      </c>
+      <c r="J66" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -56553,9 +56353,8 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-    </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:27" ht="15.75" customHeight="1">
       <c r="A67" s="12">
         <v>45884</v>
       </c>
@@ -56580,17 +56379,15 @@
       <c r="H67" s="10">
         <v>45884.463379629633</v>
       </c>
-      <c r="I67" s="4">
-        <v>15</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4" t="s">
+      <c r="I67" s="27">
+        <v>894</v>
+      </c>
+      <c r="J67" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -56605,9 +56402,8 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
-    </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1">
       <c r="A68" s="12">
         <v>45892</v>
       </c>
@@ -56632,17 +56428,15 @@
       <c r="H68" s="10">
         <v>45892.538090277776</v>
       </c>
-      <c r="I68" s="4">
-        <v>10</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" s="4" t="s">
+      <c r="I68" s="27">
+        <v>598</v>
+      </c>
+      <c r="J68" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -56657,9 +56451,8 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-    </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1">
       <c r="A69" s="12">
         <v>45893</v>
       </c>
@@ -56684,17 +56477,15 @@
       <c r="H69" s="10">
         <v>45893.796597222223</v>
       </c>
-      <c r="I69" s="4">
-        <v>39</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4" t="s">
+      <c r="I69" s="27">
+        <v>2293</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -56709,9 +56500,8 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-    </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1">
       <c r="A70" s="12">
         <v>45896</v>
       </c>
@@ -56736,17 +56526,15 @@
       <c r="H70" s="10">
         <v>45896.755937499998</v>
       </c>
-      <c r="I70" s="4">
-        <v>50</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4" t="s">
+      <c r="I70" s="27">
+        <v>2989</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -56761,9 +56549,8 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
-    </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:27" ht="15.75" customHeight="1">
       <c r="A71" s="12">
         <v>45901</v>
       </c>
@@ -56788,17 +56575,15 @@
       <c r="H71" s="10">
         <v>45901.476574074077</v>
       </c>
-      <c r="I71" s="4">
-        <v>30</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4" t="s">
+      <c r="I71" s="27">
+        <v>1794</v>
+      </c>
+      <c r="J71" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -56813,9 +56598,8 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
-    </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1">
       <c r="A72" s="12">
         <v>45901</v>
       </c>
@@ -56840,17 +56624,15 @@
       <c r="H72" s="10">
         <v>45901.678067129629</v>
       </c>
-      <c r="I72" s="4">
-        <v>45</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4" t="s">
+      <c r="I72" s="27">
+        <v>2710</v>
+      </c>
+      <c r="J72" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -56865,9 +56647,8 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
-      <c r="AB72" s="2"/>
-    </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1">
       <c r="A73" s="12">
         <v>45904</v>
       </c>
@@ -56892,17 +56673,15 @@
       <c r="H73" s="10">
         <v>45904.802152777775</v>
       </c>
-      <c r="I73" s="4">
-        <v>30</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4" t="s">
+      <c r="I73" s="27">
+        <v>1776</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -56917,9 +56696,8 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
-      <c r="AB73" s="2"/>
-    </row>
-    <row r="74" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1">
       <c r="A74" s="12">
         <v>45905</v>
       </c>
@@ -56944,17 +56722,15 @@
       <c r="H74" s="10">
         <v>45905.404548611114</v>
       </c>
-      <c r="I74" s="4">
-        <v>54</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="I74" s="27">
+        <v>3215</v>
+      </c>
+      <c r="J74" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -56969,9 +56745,8 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
-      <c r="AB74" s="2"/>
-    </row>
-    <row r="75" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1">
       <c r="A75" s="12">
         <v>45905</v>
       </c>
@@ -56996,17 +56771,15 @@
       <c r="H75" s="10">
         <v>45905.537685185183</v>
       </c>
-      <c r="I75" s="4">
-        <v>50</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" s="4" t="s">
+      <c r="I75" s="27">
+        <v>2963</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -57021,9 +56794,8 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
-    </row>
-    <row r="76" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1">
       <c r="A76" s="12">
         <v>45910</v>
       </c>
@@ -57048,17 +56820,15 @@
       <c r="H76" s="10">
         <v>45910.807534722226</v>
       </c>
-      <c r="I76" s="4">
-        <v>37</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76" s="4" t="s">
+      <c r="I76" s="27">
+        <v>2266</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -57073,9 +56843,8 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
-      <c r="AB76" s="2"/>
-    </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1">
       <c r="A77" s="12">
         <v>45911</v>
       </c>
@@ -57100,17 +56869,15 @@
       <c r="H77" s="10">
         <v>45911.503368055557</v>
       </c>
-      <c r="I77" s="4">
-        <v>34</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77" s="4" t="s">
+      <c r="I77" s="27">
+        <v>2086</v>
+      </c>
+      <c r="J77" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -57125,9 +56892,8 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-    </row>
-    <row r="78" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1">
       <c r="A78" s="12">
         <v>45913</v>
       </c>
@@ -57152,17 +56918,15 @@
       <c r="H78" s="10">
         <v>45913.717152777775</v>
       </c>
-      <c r="I78" s="4">
-        <v>31</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" s="4" t="s">
+      <c r="I78" s="27">
+        <v>1872</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -57177,9 +56941,8 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-    </row>
-    <row r="79" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1">
       <c r="A79" s="12">
         <v>45914</v>
       </c>
@@ -57204,17 +56967,15 @@
       <c r="H79" s="10">
         <v>45914.709618055553</v>
       </c>
-      <c r="I79" s="4">
-        <v>26</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" s="4" t="s">
+      <c r="I79" s="27">
+        <v>1606</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -57229,9 +56990,8 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
-      <c r="AB79" s="2"/>
-    </row>
-    <row r="80" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1">
       <c r="A80" s="12">
         <v>45927</v>
       </c>
@@ -57256,17 +57016,15 @@
       <c r="H80" s="10">
         <v>45927.592546296299</v>
       </c>
-      <c r="I80" s="4">
-        <v>41</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80" s="4" t="s">
+      <c r="I80" s="27">
+        <v>2446</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -57281,9 +57039,8 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
-      <c r="AB80" s="2"/>
-    </row>
-    <row r="81" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="1:27" ht="15.75" customHeight="1">
       <c r="A81" s="12">
         <v>45933</v>
       </c>
@@ -57308,17 +57065,15 @@
       <c r="H81" s="10">
         <v>45933.637291666666</v>
       </c>
-      <c r="I81" s="4">
-        <v>50</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="I81" s="27">
+        <v>3020</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -57333,9 +57088,8 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
-      <c r="AB81" s="2"/>
-    </row>
-    <row r="82" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="1:27" ht="15.75" customHeight="1">
       <c r="A82" s="12">
         <v>45934</v>
       </c>
@@ -57360,17 +57114,15 @@
       <c r="H82" s="10">
         <v>45934.66673611111</v>
       </c>
-      <c r="I82" s="4">
-        <v>49</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" s="4" t="s">
+      <c r="I82" s="27">
+        <v>2888</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -57385,9 +57137,8 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
-    </row>
-    <row r="83" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="1:27" ht="15.75" customHeight="1">
       <c r="A83" s="12">
         <v>45935</v>
       </c>
@@ -57412,17 +57163,15 @@
       <c r="H83" s="10">
         <v>45935.625185185185</v>
       </c>
-      <c r="I83" s="4">
-        <v>11</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4" t="s">
+      <c r="I83" s="27">
+        <v>671</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -57437,9 +57186,8 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
-      <c r="AB83" s="2"/>
-    </row>
-    <row r="84" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="1:27" ht="15.75" customHeight="1">
       <c r="A84" s="12">
         <v>45936</v>
       </c>
@@ -57464,17 +57212,15 @@
       <c r="H84" s="10">
         <v>45936.733923611115</v>
       </c>
-      <c r="I84" s="4">
-        <v>55</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" s="4" t="s">
+      <c r="I84" s="27">
+        <v>3307</v>
+      </c>
+      <c r="J84" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -57489,9 +57235,8 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
-      <c r="AB84" s="2"/>
-    </row>
-    <row r="85" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="85" spans="1:27" ht="15.75" customHeight="1">
       <c r="A85" s="12">
         <v>45937</v>
       </c>
@@ -57516,17 +57261,15 @@
       <c r="H85" s="10">
         <v>45937.498298611114</v>
       </c>
-      <c r="I85" s="4">
-        <v>18</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" s="4" t="s">
+      <c r="I85" s="27">
+        <v>1108</v>
+      </c>
+      <c r="J85" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -57541,9 +57284,8 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
-      <c r="AB85" s="2"/>
-    </row>
-    <row r="86" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="86" spans="1:27" ht="15.75" customHeight="1">
       <c r="A86" s="12">
         <v>45938</v>
       </c>
@@ -57568,17 +57310,15 @@
       <c r="H86" s="10">
         <v>45938.762685185182</v>
       </c>
-      <c r="I86" s="4">
-        <v>51</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" s="4" t="s">
+      <c r="I86" s="27">
+        <v>3071</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -57593,9 +57333,8 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
-      <c r="AB86" s="2"/>
-    </row>
-    <row r="87" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="87" spans="1:27" ht="15.75" customHeight="1">
       <c r="A87" s="12">
         <v>45944</v>
       </c>
@@ -57620,17 +57359,15 @@
       <c r="H87" s="10">
         <v>45944.671319444446</v>
       </c>
-      <c r="I87" s="4">
-        <v>21</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" s="4" t="s">
+      <c r="I87" s="27">
+        <v>1258</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -57645,9 +57382,8 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
-      <c r="AB87" s="2"/>
-    </row>
-    <row r="88" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="88" spans="1:27" ht="15.75" customHeight="1">
       <c r="A88" s="12">
         <v>45948</v>
       </c>
@@ -57672,17 +57408,15 @@
       <c r="H88" s="10">
         <v>45948.39334490741</v>
       </c>
-      <c r="I88" s="4">
-        <v>20</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="I88" s="27">
+        <v>1167</v>
+      </c>
+      <c r="J88" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -57697,9 +57431,8 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
-      <c r="AB88" s="2"/>
-    </row>
-    <row r="89" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="1:27" ht="15.75" customHeight="1">
       <c r="A89" s="12">
         <v>45957</v>
       </c>
@@ -57724,17 +57457,15 @@
       <c r="H89" s="10">
         <v>45957.367951388886</v>
       </c>
-      <c r="I89" s="4">
-        <v>42</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89" s="4" t="s">
+      <c r="I89" s="27">
+        <v>2541</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -57749,9 +57480,8 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-    </row>
-    <row r="90" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="1:27" ht="15.75" customHeight="1">
       <c r="A90" s="12">
         <v>45967</v>
       </c>
@@ -57776,17 +57506,15 @@
       <c r="H90" s="10">
         <v>45967.547708333332</v>
       </c>
-      <c r="I90" s="4">
-        <v>38</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" s="4" t="s">
+      <c r="I90" s="27">
+        <v>2264</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -57801,9 +57529,8 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
-      <c r="AB90" s="2"/>
-    </row>
-    <row r="91" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="91" spans="1:27" ht="15.75" customHeight="1">
       <c r="A91" s="12">
         <v>45970</v>
       </c>
@@ -57828,17 +57555,15 @@
       <c r="H91" s="10">
         <v>45970.823900462965</v>
       </c>
-      <c r="I91" s="4">
-        <v>52</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" s="4" t="s">
+      <c r="I91" s="27">
+        <v>3123</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -57853,9 +57578,8 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
-      <c r="AB91" s="2"/>
-    </row>
-    <row r="92" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="92" spans="1:27" ht="15.75" customHeight="1">
       <c r="A92" s="12">
         <v>45972</v>
       </c>
@@ -57880,17 +57604,15 @@
       <c r="H92" s="10">
         <v>45972.456631944442</v>
       </c>
-      <c r="I92" s="4">
-        <v>11</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92" s="4" t="s">
+      <c r="I92" s="27">
+        <v>688</v>
+      </c>
+      <c r="J92" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -57905,9 +57627,8 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
-      <c r="AB92" s="2"/>
-    </row>
-    <row r="93" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="93" spans="1:27" ht="15.75" customHeight="1">
       <c r="A93" s="12">
         <v>45972</v>
       </c>
@@ -57932,17 +57653,15 @@
       <c r="H93" s="10">
         <v>45972.580625000002</v>
       </c>
-      <c r="I93" s="4">
-        <v>16</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" s="4" t="s">
+      <c r="I93" s="27">
+        <v>951</v>
+      </c>
+      <c r="J93" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -57957,9 +57676,8 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
-      <c r="AB93" s="2"/>
-    </row>
-    <row r="94" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="94" spans="1:27" ht="15.75" customHeight="1">
       <c r="A94" s="12">
         <v>45974</v>
       </c>
@@ -57984,17 +57702,15 @@
       <c r="H94" s="10">
         <v>45974.390462962961</v>
       </c>
-      <c r="I94" s="4">
-        <v>19</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" s="4" t="s">
+      <c r="I94" s="27">
+        <v>1126</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -58009,9 +57725,8 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
-      <c r="AB94" s="2"/>
-    </row>
-    <row r="95" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="95" spans="1:27" ht="15.75" customHeight="1">
       <c r="A95" s="12">
         <v>45980</v>
       </c>
@@ -58036,17 +57751,15 @@
       <c r="H95" s="10">
         <v>45980.413483796299</v>
       </c>
-      <c r="I95" s="4">
-        <v>11</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="I95" s="27">
+        <v>655</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -58061,9 +57774,8 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
-      <c r="AB95" s="2"/>
-    </row>
-    <row r="96" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="96" spans="1:27" ht="15.75" customHeight="1">
       <c r="A96" s="12">
         <v>45983</v>
       </c>
@@ -58088,17 +57800,15 @@
       <c r="H96" s="10">
         <v>45983.571319444447</v>
       </c>
-      <c r="I96" s="4">
-        <v>21</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96" s="4" t="s">
+      <c r="I96" s="27">
+        <v>1258</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -58113,9 +57823,8 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
-      <c r="AB96" s="2"/>
-    </row>
-    <row r="97" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="1:27" ht="15.75" customHeight="1">
       <c r="A97" s="12">
         <v>45985</v>
       </c>
@@ -58140,17 +57849,15 @@
       <c r="H97" s="10">
         <v>45985.543819444443</v>
       </c>
-      <c r="I97" s="4">
-        <v>31</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97" s="4" t="s">
+      <c r="I97" s="27">
+        <v>1808</v>
+      </c>
+      <c r="J97" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -58165,9 +57872,8 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
-      <c r="AB97" s="2"/>
-    </row>
-    <row r="98" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="98" spans="1:27" ht="15.75" customHeight="1">
       <c r="A98" s="12">
         <v>45986</v>
       </c>
@@ -58192,17 +57898,15 @@
       <c r="H98" s="10">
         <v>45986.447291666664</v>
       </c>
-      <c r="I98" s="4">
-        <v>23</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98" s="4" t="s">
+      <c r="I98" s="27">
+        <v>1371</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -58217,9 +57921,8 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
-      <c r="AB98" s="2"/>
-    </row>
-    <row r="99" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="99" spans="1:27" ht="15.75" customHeight="1">
       <c r="A99" s="12">
         <v>45992</v>
       </c>
@@ -58244,17 +57947,15 @@
       <c r="H99" s="10">
         <v>45992.743541666663</v>
       </c>
-      <c r="I99" s="4">
-        <v>25</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99" s="4" t="s">
+      <c r="I99" s="27">
+        <v>1527</v>
+      </c>
+      <c r="J99" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -58269,9 +57970,8 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
-      <c r="AB99" s="2"/>
-    </row>
-    <row r="100" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="100" spans="1:27" ht="15.75" customHeight="1">
       <c r="A100" s="12">
         <v>45996</v>
       </c>
@@ -58296,17 +57996,15 @@
       <c r="H100" s="10">
         <v>45996.726770833331</v>
       </c>
-      <c r="I100" s="4">
-        <v>14</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" s="4" t="s">
+      <c r="I100" s="27">
+        <v>858</v>
+      </c>
+      <c r="J100" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -58321,9 +58019,8 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
-      <c r="AB100" s="2"/>
-    </row>
-    <row r="101" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="101" spans="1:27" ht="15.75" customHeight="1">
       <c r="A101" s="12">
         <v>45998</v>
       </c>
@@ -58348,17 +58045,15 @@
       <c r="H101" s="10">
         <v>45998.635104166664</v>
       </c>
-      <c r="I101" s="4">
-        <v>37</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101" s="4" t="s">
+      <c r="I101" s="27">
+        <v>2238</v>
+      </c>
+      <c r="J101" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -58373,9 +58068,8 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
-      <c r="AB101" s="2"/>
-    </row>
-    <row r="102" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="102" spans="1:27" ht="15.75" customHeight="1">
       <c r="A102" s="12">
         <v>46000</v>
       </c>
@@ -58400,17 +58094,15 @@
       <c r="H102" s="10">
         <v>46000.544733796298</v>
       </c>
-      <c r="I102" s="4">
-        <v>42</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102" s="4" t="s">
+      <c r="I102" s="27">
+        <v>2540</v>
+      </c>
+      <c r="J102" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K102" s="6"/>
       <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -58425,9 +58117,8 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
-      <c r="AB102" s="2"/>
-    </row>
-    <row r="103" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="103" spans="1:27" ht="15.75" customHeight="1">
       <c r="A103" s="12">
         <v>46001</v>
       </c>
@@ -58452,17 +58143,15 @@
       <c r="H103" s="10">
         <v>46001.378958333335</v>
       </c>
-      <c r="I103" s="4">
-        <v>25</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103" s="4" t="s">
+      <c r="I103" s="27">
+        <v>1520</v>
+      </c>
+      <c r="J103" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K103" s="6"/>
       <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -58477,9 +58166,8 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
-      <c r="AB103" s="2"/>
-    </row>
-    <row r="104" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="104" spans="1:27" ht="15.75" customHeight="1">
       <c r="A104" s="12">
         <v>46015</v>
       </c>
@@ -58504,17 +58192,15 @@
       <c r="H104" s="10">
         <v>46015.618819444448</v>
       </c>
-      <c r="I104" s="4">
-        <v>30</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104" s="4" t="s">
+      <c r="I104" s="27">
+        <v>1762</v>
+      </c>
+      <c r="J104" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K104" s="6"/>
       <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -58529,9 +58215,8 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
-      <c r="AB104" s="2"/>
-    </row>
-    <row r="105" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="105" spans="1:27" ht="15.75" customHeight="1">
       <c r="A105" s="12">
         <v>46016</v>
       </c>
@@ -58556,17 +58241,15 @@
       <c r="H105" s="10">
         <v>46016.544733796298</v>
       </c>
-      <c r="I105" s="4">
-        <v>59</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105" s="4" t="s">
+      <c r="I105" s="27">
+        <v>3535</v>
+      </c>
+      <c r="J105" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -58581,9 +58264,8 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
-      <c r="AB105" s="2"/>
-    </row>
-    <row r="106" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="106" spans="1:27" ht="15.75" customHeight="1">
       <c r="A106" s="12">
         <v>46018</v>
       </c>
@@ -58608,17 +58290,15 @@
       <c r="H106" s="10">
         <v>46018.515567129631</v>
       </c>
-      <c r="I106" s="4">
-        <v>31</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106" s="4" t="s">
+      <c r="I106" s="27">
+        <v>1841</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="K106" s="6"/>
       <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -58633,9 +58313,8 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
-      <c r="AB106" s="2"/>
-    </row>
-    <row r="107" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="107" spans="1:27" ht="15.75" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="4"/>
@@ -58644,10 +58323,10 @@
       <c r="F107" s="13"/>
       <c r="G107" s="4"/>
       <c r="H107" s="13"/>
-      <c r="I107" s="4"/>
-      <c r="K107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -58662,9 +58341,8 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
-      <c r="AB107" s="2"/>
-    </row>
-    <row r="108" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="108" spans="1:27" ht="15.75" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="4"/>
@@ -58673,10 +58351,10 @@
       <c r="F108" s="13"/>
       <c r="G108" s="4"/>
       <c r="H108" s="13"/>
-      <c r="I108" s="4"/>
-      <c r="K108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -58691,9 +58369,8 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
-      <c r="AB108" s="2"/>
-    </row>
-    <row r="109" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="109" spans="1:27" ht="15.75" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="4"/>
@@ -58702,10 +58379,10 @@
       <c r="F109" s="13"/>
       <c r="G109" s="4"/>
       <c r="H109" s="13"/>
-      <c r="I109" s="4"/>
-      <c r="K109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -58720,9 +58397,8 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
-      <c r="AB109" s="2"/>
-    </row>
-    <row r="110" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="110" spans="1:27" ht="15.75" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="4"/>
@@ -58731,10 +58407,10 @@
       <c r="F110" s="13"/>
       <c r="G110" s="4"/>
       <c r="H110" s="13"/>
-      <c r="I110" s="4"/>
-      <c r="K110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -58749,9 +58425,8 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
-    </row>
-    <row r="111" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="111" spans="1:27" ht="15.75" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="4"/>
@@ -58760,10 +58435,10 @@
       <c r="F111" s="13"/>
       <c r="G111" s="4"/>
       <c r="H111" s="13"/>
-      <c r="I111" s="4"/>
-      <c r="K111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="6"/>
       <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -58778,9 +58453,8 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
-      <c r="AB111" s="2"/>
-    </row>
-    <row r="112" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="112" spans="1:27" ht="15.75" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="4"/>
@@ -58789,10 +58463,10 @@
       <c r="F112" s="13"/>
       <c r="G112" s="4"/>
       <c r="H112" s="13"/>
-      <c r="I112" s="4"/>
-      <c r="K112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -58807,9 +58481,8 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
-      <c r="AB112" s="2"/>
-    </row>
-    <row r="113" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="113" spans="1:27" ht="15.75" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="4"/>
@@ -58818,10 +58491,10 @@
       <c r="F113" s="13"/>
       <c r="G113" s="4"/>
       <c r="H113" s="13"/>
-      <c r="I113" s="4"/>
-      <c r="K113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="6"/>
       <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
+      <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -58836,9 +58509,8 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
-      <c r="AB113" s="2"/>
-    </row>
-    <row r="114" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="114" spans="1:27" ht="15.75" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="4"/>
@@ -58847,10 +58519,10 @@
       <c r="F114" s="13"/>
       <c r="G114" s="4"/>
       <c r="H114" s="13"/>
-      <c r="I114" s="4"/>
-      <c r="K114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -58865,9 +58537,8 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
-      <c r="AB114" s="2"/>
-    </row>
-    <row r="115" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="115" spans="1:27" ht="15.75" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="4"/>
@@ -58876,10 +58547,10 @@
       <c r="F115" s="13"/>
       <c r="G115" s="4"/>
       <c r="H115" s="13"/>
-      <c r="I115" s="4"/>
-      <c r="K115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="6"/>
       <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -58894,9 +58565,8 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
-      <c r="AB115" s="2"/>
-    </row>
-    <row r="116" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="116" spans="1:27" ht="15.75" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="4"/>
@@ -58905,10 +58575,10 @@
       <c r="F116" s="13"/>
       <c r="G116" s="4"/>
       <c r="H116" s="13"/>
-      <c r="I116" s="4"/>
-      <c r="K116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="6"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -58923,9 +58593,8 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
-      <c r="AB116" s="2"/>
-    </row>
-    <row r="117" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="117" spans="1:27" ht="15.75" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="4"/>
@@ -58934,10 +58603,10 @@
       <c r="F117" s="13"/>
       <c r="G117" s="4"/>
       <c r="H117" s="13"/>
-      <c r="I117" s="4"/>
-      <c r="K117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="6"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -58952,9 +58621,8 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
-      <c r="AB117" s="2"/>
-    </row>
-    <row r="118" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="118" spans="1:27" ht="15.75" customHeight="1">
       <c r="A118" s="12"/>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
@@ -58963,10 +58631,10 @@
       <c r="F118" s="13"/>
       <c r="G118" s="4"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="4"/>
-      <c r="K118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="6"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
+      <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -58981,9 +58649,8 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
-      <c r="AB118" s="2"/>
-    </row>
-    <row r="119" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="119" spans="1:27" ht="15.75" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
@@ -58992,10 +58659,10 @@
       <c r="F119" s="13"/>
       <c r="G119" s="4"/>
       <c r="H119" s="13"/>
-      <c r="I119" s="4"/>
-      <c r="K119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="6"/>
       <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
+      <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -59010,9 +58677,8 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
-      <c r="AB119" s="2"/>
-    </row>
-    <row r="120" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="120" spans="1:27" ht="15.75" customHeight="1">
       <c r="A120" s="14"/>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
@@ -59021,9 +58687,9 @@
       <c r="F120" s="13"/>
       <c r="G120" s="4"/>
       <c r="H120" s="13"/>
-      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -59039,9 +58705,8 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
-      <c r="AB120" s="2"/>
-    </row>
-    <row r="121" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="121" spans="1:27" ht="15.75" customHeight="1">
       <c r="A121" s="14"/>
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
@@ -59050,9 +58715,9 @@
       <c r="F121" s="13"/>
       <c r="G121" s="4"/>
       <c r="H121" s="13"/>
-      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -59068,9 +58733,8 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
-      <c r="AB121" s="2"/>
-    </row>
-    <row r="122" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="122" spans="1:27" ht="15.75" customHeight="1">
       <c r="A122" s="14"/>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
@@ -59079,9 +58743,9 @@
       <c r="F122" s="13"/>
       <c r="G122" s="4"/>
       <c r="H122" s="13"/>
-      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
       <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
+      <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -59097,9 +58761,8 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
-      <c r="AB122" s="2"/>
-    </row>
-    <row r="123" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="123" spans="1:27" ht="15.75" customHeight="1">
       <c r="A123" s="14"/>
       <c r="B123" s="3"/>
       <c r="C123" s="4"/>
@@ -59108,9 +58771,9 @@
       <c r="F123" s="13"/>
       <c r="G123" s="4"/>
       <c r="H123" s="13"/>
-      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
+      <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -59126,9 +58789,8 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
-      <c r="AB123" s="2"/>
-    </row>
-    <row r="124" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="124" spans="1:27" ht="15.75" customHeight="1">
       <c r="A124" s="14"/>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
@@ -59137,9 +58799,9 @@
       <c r="F124" s="13"/>
       <c r="G124" s="4"/>
       <c r="H124" s="13"/>
-      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
       <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
+      <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -59155,9 +58817,8 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
-      <c r="AB124" s="2"/>
-    </row>
-    <row r="125" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="125" spans="1:27" ht="15.75" customHeight="1">
       <c r="A125" s="14"/>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
@@ -59166,9 +58827,9 @@
       <c r="F125" s="13"/>
       <c r="G125" s="4"/>
       <c r="H125" s="13"/>
-      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
       <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
+      <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -59184,9 +58845,8 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
-      <c r="AB125" s="2"/>
-    </row>
-    <row r="126" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="126" spans="1:27" ht="15.75" customHeight="1">
       <c r="A126" s="14"/>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
@@ -59195,9 +58855,9 @@
       <c r="F126" s="13"/>
       <c r="G126" s="4"/>
       <c r="H126" s="13"/>
-      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
       <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
+      <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -59213,9 +58873,8 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
-      <c r="AB126" s="2"/>
-    </row>
-    <row r="127" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="127" spans="1:27" ht="15.75" customHeight="1">
       <c r="A127" s="14"/>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
@@ -59224,8 +58883,8 @@
       <c r="F127" s="13"/>
       <c r="G127" s="4"/>
       <c r="H127" s="13"/>
-      <c r="I127" s="4"/>
-      <c r="K127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -59242,9 +58901,8 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
-      <c r="AB127" s="2"/>
-    </row>
-    <row r="128" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="128" spans="1:27" ht="15.75" customHeight="1">
       <c r="A128" s="14"/>
       <c r="B128" s="3"/>
       <c r="C128" s="4"/>
@@ -59253,8 +58911,8 @@
       <c r="F128" s="13"/>
       <c r="G128" s="4"/>
       <c r="H128" s="13"/>
-      <c r="I128" s="4"/>
-      <c r="K128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -59271,9 +58929,8 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
-      <c r="AB128" s="2"/>
-    </row>
-    <row r="129" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="129" spans="1:27" ht="15.75" customHeight="1">
       <c r="A129" s="14"/>
       <c r="B129" s="3"/>
       <c r="C129" s="4"/>
@@ -59282,8 +58939,8 @@
       <c r="F129" s="13"/>
       <c r="G129" s="4"/>
       <c r="H129" s="13"/>
-      <c r="I129" s="4"/>
-      <c r="K129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -59300,9 +58957,8 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
-      <c r="AB129" s="2"/>
-    </row>
-    <row r="130" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="130" spans="1:27" ht="15.75" customHeight="1">
       <c r="A130" s="14"/>
       <c r="B130" s="3"/>
       <c r="C130" s="4"/>
@@ -59311,8 +58967,8 @@
       <c r="F130" s="13"/>
       <c r="G130" s="4"/>
       <c r="H130" s="13"/>
-      <c r="I130" s="4"/>
-      <c r="K130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -59329,9 +58985,8 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
-      <c r="AB130" s="2"/>
-    </row>
-    <row r="131" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="131" spans="1:27" ht="15.75" customHeight="1">
       <c r="A131" s="14"/>
       <c r="B131" s="3"/>
       <c r="C131" s="4"/>
@@ -59340,8 +58995,8 @@
       <c r="F131" s="13"/>
       <c r="G131" s="4"/>
       <c r="H131" s="13"/>
-      <c r="I131" s="4"/>
-      <c r="K131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -59358,9 +59013,8 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
-      <c r="AB131" s="2"/>
-    </row>
-    <row r="132" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="132" spans="1:27" ht="15.75" customHeight="1">
       <c r="A132" s="14"/>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
@@ -59369,8 +59023,8 @@
       <c r="F132" s="13"/>
       <c r="G132" s="4"/>
       <c r="H132" s="13"/>
-      <c r="I132" s="4"/>
-      <c r="K132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -59387,9 +59041,8 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
-      <c r="AB132" s="2"/>
-    </row>
-    <row r="133" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="133" spans="1:27" ht="15.75" customHeight="1">
       <c r="A133" s="14"/>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
@@ -59398,8 +59051,8 @@
       <c r="F133" s="13"/>
       <c r="G133" s="4"/>
       <c r="H133" s="13"/>
-      <c r="I133" s="4"/>
-      <c r="K133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -59416,9 +59069,8 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
-      <c r="AB133" s="2"/>
-    </row>
-    <row r="134" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="134" spans="1:27" ht="15.75" customHeight="1">
       <c r="A134" s="14"/>
       <c r="B134" s="3"/>
       <c r="C134" s="4"/>
@@ -59427,8 +59079,8 @@
       <c r="F134" s="13"/>
       <c r="G134" s="4"/>
       <c r="H134" s="13"/>
-      <c r="I134" s="4"/>
-      <c r="K134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -59445,9 +59097,8 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
-      <c r="AB134" s="2"/>
-    </row>
-    <row r="135" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="135" spans="1:27" ht="15.75" customHeight="1">
       <c r="A135" s="14"/>
       <c r="B135" s="3"/>
       <c r="C135" s="4"/>
@@ -59456,8 +59107,8 @@
       <c r="F135" s="13"/>
       <c r="G135" s="4"/>
       <c r="H135" s="13"/>
-      <c r="I135" s="4"/>
-      <c r="K135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -59474,9 +59125,8 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
-      <c r="AB135" s="2"/>
-    </row>
-    <row r="136" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="136" spans="1:27" ht="15.75" customHeight="1">
       <c r="A136" s="14"/>
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
@@ -59485,8 +59135,8 @@
       <c r="F136" s="13"/>
       <c r="G136" s="4"/>
       <c r="H136" s="13"/>
-      <c r="I136" s="4"/>
-      <c r="K136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -59503,9 +59153,8 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
-      <c r="AB136" s="2"/>
-    </row>
-    <row r="137" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="137" spans="1:27" ht="15.75" customHeight="1">
       <c r="A137" s="14"/>
       <c r="B137" s="3"/>
       <c r="C137" s="4"/>
@@ -59514,8 +59163,8 @@
       <c r="F137" s="13"/>
       <c r="G137" s="4"/>
       <c r="H137" s="13"/>
-      <c r="I137" s="4"/>
-      <c r="K137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -59532,9 +59181,8 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
-      <c r="AB137" s="2"/>
-    </row>
-    <row r="138" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="138" spans="1:27" ht="15.75" customHeight="1">
       <c r="A138" s="14"/>
       <c r="B138" s="3"/>
       <c r="C138" s="4"/>
@@ -59543,8 +59191,8 @@
       <c r="F138" s="13"/>
       <c r="G138" s="4"/>
       <c r="H138" s="13"/>
-      <c r="I138" s="4"/>
-      <c r="K138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -59561,9 +59209,8 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
-      <c r="AB138" s="2"/>
-    </row>
-    <row r="139" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="139" spans="1:27" ht="15.75" customHeight="1">
       <c r="A139" s="14"/>
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
@@ -59572,8 +59219,8 @@
       <c r="F139" s="13"/>
       <c r="G139" s="4"/>
       <c r="H139" s="13"/>
-      <c r="I139" s="4"/>
-      <c r="K139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -59590,9 +59237,8 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
-      <c r="AB139" s="2"/>
-    </row>
-    <row r="140" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="140" spans="1:27" ht="15.75" customHeight="1">
       <c r="A140" s="14"/>
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
@@ -59601,8 +59247,8 @@
       <c r="F140" s="13"/>
       <c r="G140" s="4"/>
       <c r="H140" s="13"/>
-      <c r="I140" s="4"/>
-      <c r="K140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -59619,9 +59265,8 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
-      <c r="AB140" s="2"/>
-    </row>
-    <row r="141" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="141" spans="1:27" ht="15.75" customHeight="1">
       <c r="A141" s="14"/>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
@@ -59630,8 +59275,8 @@
       <c r="F141" s="13"/>
       <c r="G141" s="4"/>
       <c r="H141" s="13"/>
-      <c r="I141" s="4"/>
-      <c r="K141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -59648,9 +59293,8 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
-      <c r="AB141" s="2"/>
-    </row>
-    <row r="142" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="142" spans="1:27" ht="15.75" customHeight="1">
       <c r="A142" s="14"/>
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
@@ -59659,8 +59303,8 @@
       <c r="F142" s="13"/>
       <c r="G142" s="4"/>
       <c r="H142" s="13"/>
-      <c r="I142" s="4"/>
-      <c r="K142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -59677,9 +59321,8 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
-      <c r="AB142" s="2"/>
-    </row>
-    <row r="143" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="143" spans="1:27" ht="15.75" customHeight="1">
       <c r="A143" s="14"/>
       <c r="B143" s="3"/>
       <c r="C143" s="4"/>
@@ -59688,8 +59331,8 @@
       <c r="F143" s="13"/>
       <c r="G143" s="4"/>
       <c r="H143" s="13"/>
-      <c r="I143" s="4"/>
-      <c r="K143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -59706,9 +59349,8 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
-      <c r="AB143" s="2"/>
-    </row>
-    <row r="144" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="144" spans="1:27" ht="15.75" customHeight="1">
       <c r="A144" s="14"/>
       <c r="B144" s="3"/>
       <c r="C144" s="4"/>
@@ -59717,8 +59359,8 @@
       <c r="F144" s="13"/>
       <c r="G144" s="4"/>
       <c r="H144" s="13"/>
-      <c r="I144" s="4"/>
-      <c r="K144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -59735,9 +59377,8 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
-      <c r="AB144" s="2"/>
-    </row>
-    <row r="145" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="145" spans="1:27" ht="15.75" customHeight="1">
       <c r="A145" s="14"/>
       <c r="B145" s="3"/>
       <c r="C145" s="4"/>
@@ -59746,8 +59387,8 @@
       <c r="F145" s="13"/>
       <c r="G145" s="4"/>
       <c r="H145" s="13"/>
-      <c r="I145" s="4"/>
-      <c r="K145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -59764,9 +59405,8 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
-      <c r="AB145" s="2"/>
-    </row>
-    <row r="146" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="146" spans="1:27" ht="15.75" customHeight="1">
       <c r="A146" s="14"/>
       <c r="B146" s="3"/>
       <c r="C146" s="4"/>
@@ -59775,8 +59415,8 @@
       <c r="F146" s="13"/>
       <c r="G146" s="4"/>
       <c r="H146" s="13"/>
-      <c r="I146" s="4"/>
-      <c r="K146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -59793,9 +59433,8 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
-      <c r="AB146" s="2"/>
-    </row>
-    <row r="147" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="147" spans="1:27" ht="15.75" customHeight="1">
       <c r="A147" s="14"/>
       <c r="B147" s="3"/>
       <c r="C147" s="4"/>
@@ -59804,8 +59443,8 @@
       <c r="F147" s="13"/>
       <c r="G147" s="4"/>
       <c r="H147" s="13"/>
-      <c r="I147" s="4"/>
-      <c r="K147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -59822,9 +59461,8 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
-      <c r="AB147" s="2"/>
-    </row>
-    <row r="148" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="148" spans="1:27" ht="15.75" customHeight="1">
       <c r="A148" s="14"/>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
@@ -59833,8 +59471,8 @@
       <c r="F148" s="13"/>
       <c r="G148" s="4"/>
       <c r="H148" s="13"/>
-      <c r="I148" s="4"/>
-      <c r="K148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -59851,9 +59489,8 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
-      <c r="AB148" s="2"/>
-    </row>
-    <row r="149" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="149" spans="1:27" ht="15.75" customHeight="1">
       <c r="A149" s="14"/>
       <c r="B149" s="3"/>
       <c r="C149" s="4"/>
@@ -59862,8 +59499,8 @@
       <c r="F149" s="13"/>
       <c r="G149" s="4"/>
       <c r="H149" s="13"/>
-      <c r="I149" s="4"/>
-      <c r="K149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -59880,9 +59517,8 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
-      <c r="AB149" s="2"/>
-    </row>
-    <row r="150" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="150" spans="1:27" ht="15.75" customHeight="1">
       <c r="A150" s="14"/>
       <c r="B150" s="3"/>
       <c r="C150" s="4"/>
@@ -59891,8 +59527,8 @@
       <c r="F150" s="13"/>
       <c r="G150" s="4"/>
       <c r="H150" s="13"/>
-      <c r="I150" s="4"/>
-      <c r="K150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -59909,9 +59545,8 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
-      <c r="AB150" s="2"/>
-    </row>
-    <row r="151" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="151" spans="1:27" ht="15.75" customHeight="1">
       <c r="A151" s="14"/>
       <c r="B151" s="3"/>
       <c r="C151" s="4"/>
@@ -59920,8 +59555,8 @@
       <c r="F151" s="13"/>
       <c r="G151" s="4"/>
       <c r="H151" s="13"/>
-      <c r="I151" s="4"/>
-      <c r="K151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -59938,9 +59573,8 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
-      <c r="AB151" s="2"/>
-    </row>
-    <row r="152" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="152" spans="1:27" ht="15.75" customHeight="1">
       <c r="A152" s="14"/>
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
@@ -59949,8 +59583,8 @@
       <c r="F152" s="13"/>
       <c r="G152" s="4"/>
       <c r="H152" s="13"/>
-      <c r="I152" s="4"/>
-      <c r="K152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -59967,9 +59601,8 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
-      <c r="AB152" s="2"/>
-    </row>
-    <row r="153" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="153" spans="1:27" ht="15.75" customHeight="1">
       <c r="A153" s="14"/>
       <c r="B153" s="3"/>
       <c r="C153" s="4"/>
@@ -59978,8 +59611,8 @@
       <c r="F153" s="13"/>
       <c r="G153" s="4"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="4"/>
-      <c r="K153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -59996,9 +59629,8 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
-      <c r="AB153" s="2"/>
-    </row>
-    <row r="154" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="154" spans="1:27" ht="15.75" customHeight="1">
       <c r="A154" s="14"/>
       <c r="B154" s="3"/>
       <c r="C154" s="4"/>
@@ -60007,8 +59639,8 @@
       <c r="F154" s="13"/>
       <c r="G154" s="4"/>
       <c r="H154" s="13"/>
-      <c r="I154" s="4"/>
-      <c r="K154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -60025,9 +59657,8 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
-      <c r="AB154" s="2"/>
-    </row>
-    <row r="155" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="155" spans="1:27" ht="15.75" customHeight="1">
       <c r="A155" s="14"/>
       <c r="B155" s="3"/>
       <c r="C155" s="4"/>
@@ -60036,8 +59667,8 @@
       <c r="F155" s="13"/>
       <c r="G155" s="4"/>
       <c r="H155" s="13"/>
-      <c r="I155" s="4"/>
-      <c r="K155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -60054,9 +59685,8 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
-      <c r="AB155" s="2"/>
-    </row>
-    <row r="156" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="156" spans="1:27" ht="15.75" customHeight="1">
       <c r="A156" s="14"/>
       <c r="B156" s="3"/>
       <c r="C156" s="4"/>
@@ -60065,8 +59695,8 @@
       <c r="F156" s="13"/>
       <c r="G156" s="4"/>
       <c r="H156" s="13"/>
-      <c r="I156" s="4"/>
-      <c r="K156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -60083,9 +59713,8 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
-      <c r="AB156" s="2"/>
-    </row>
-    <row r="157" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="157" spans="1:27" ht="15.75" customHeight="1">
       <c r="A157" s="14"/>
       <c r="B157" s="3"/>
       <c r="C157" s="4"/>
@@ -60094,8 +59723,8 @@
       <c r="F157" s="13"/>
       <c r="G157" s="4"/>
       <c r="H157" s="13"/>
-      <c r="I157" s="4"/>
-      <c r="K157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -60112,9 +59741,8 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
-      <c r="AB157" s="2"/>
-    </row>
-    <row r="158" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="158" spans="1:27" ht="15.75" customHeight="1">
       <c r="A158" s="14"/>
       <c r="B158" s="3"/>
       <c r="C158" s="4"/>
@@ -60123,8 +59751,8 @@
       <c r="F158" s="13"/>
       <c r="G158" s="4"/>
       <c r="H158" s="13"/>
-      <c r="I158" s="4"/>
-      <c r="K158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -60141,9 +59769,8 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
-      <c r="AB158" s="2"/>
-    </row>
-    <row r="159" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="159" spans="1:27" ht="15.75" customHeight="1">
       <c r="A159" s="14"/>
       <c r="B159" s="3"/>
       <c r="C159" s="4"/>
@@ -60152,8 +59779,8 @@
       <c r="F159" s="13"/>
       <c r="G159" s="4"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="4"/>
-      <c r="K159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -60170,9 +59797,8 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
-      <c r="AB159" s="2"/>
-    </row>
-    <row r="160" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="160" spans="1:27" ht="15.75" customHeight="1">
       <c r="A160" s="14"/>
       <c r="B160" s="3"/>
       <c r="C160" s="4"/>
@@ -60181,8 +59807,8 @@
       <c r="F160" s="13"/>
       <c r="G160" s="4"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="4"/>
-      <c r="K160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -60199,9 +59825,8 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
-      <c r="AB160" s="2"/>
-    </row>
-    <row r="161" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="161" spans="1:27" ht="15.75" customHeight="1">
       <c r="A161" s="14"/>
       <c r="B161" s="3"/>
       <c r="C161" s="4"/>
@@ -60210,8 +59835,8 @@
       <c r="F161" s="13"/>
       <c r="G161" s="4"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="4"/>
-      <c r="K161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -60228,9 +59853,8 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
-      <c r="AB161" s="2"/>
-    </row>
-    <row r="162" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="162" spans="1:27" ht="15.75" customHeight="1">
       <c r="A162" s="14"/>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
@@ -60239,8 +59863,8 @@
       <c r="F162" s="13"/>
       <c r="G162" s="4"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="4"/>
-      <c r="K162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -60257,9 +59881,8 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
-      <c r="AB162" s="2"/>
-    </row>
-    <row r="163" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="163" spans="1:27" ht="15.75" customHeight="1">
       <c r="A163" s="14"/>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
@@ -60268,8 +59891,8 @@
       <c r="F163" s="13"/>
       <c r="G163" s="4"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="4"/>
-      <c r="K163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -60286,9 +59909,8 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
-      <c r="AB163" s="2"/>
-    </row>
-    <row r="164" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="164" spans="1:27" ht="15.75" customHeight="1">
       <c r="A164" s="14"/>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
@@ -60297,8 +59919,8 @@
       <c r="F164" s="13"/>
       <c r="G164" s="4"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="4"/>
-      <c r="K164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -60315,9 +59937,8 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
-      <c r="AB164" s="2"/>
-    </row>
-    <row r="165" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="165" spans="1:27" ht="15.75" customHeight="1">
       <c r="A165" s="14"/>
       <c r="B165" s="3"/>
       <c r="C165" s="4"/>
@@ -60326,8 +59947,8 @@
       <c r="F165" s="13"/>
       <c r="G165" s="4"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="4"/>
-      <c r="K165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -60344,9 +59965,8 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
-      <c r="AB165" s="2"/>
-    </row>
-    <row r="166" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="166" spans="1:27" ht="15.75" customHeight="1">
       <c r="A166" s="14"/>
       <c r="B166" s="3"/>
       <c r="C166" s="4"/>
@@ -60355,8 +59975,8 @@
       <c r="F166" s="13"/>
       <c r="G166" s="4"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="4"/>
-      <c r="K166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -60373,9 +59993,8 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
-      <c r="AB166" s="2"/>
-    </row>
-    <row r="167" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="167" spans="1:27" ht="15.75" customHeight="1">
       <c r="A167" s="14"/>
       <c r="B167" s="3"/>
       <c r="C167" s="4"/>
@@ -60384,8 +60003,8 @@
       <c r="F167" s="13"/>
       <c r="G167" s="4"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="4"/>
-      <c r="K167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -60402,9 +60021,8 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
-      <c r="AB167" s="2"/>
-    </row>
-    <row r="168" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="168" spans="1:27" ht="15.75" customHeight="1">
       <c r="A168" s="14"/>
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
@@ -60413,8 +60031,8 @@
       <c r="F168" s="13"/>
       <c r="G168" s="4"/>
       <c r="H168" s="13"/>
-      <c r="I168" s="4"/>
-      <c r="K168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -60431,9 +60049,8 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
-      <c r="AB168" s="2"/>
-    </row>
-    <row r="169" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="169" spans="1:27" ht="15.75" customHeight="1">
       <c r="A169" s="14"/>
       <c r="B169" s="3"/>
       <c r="C169" s="4"/>
@@ -60442,8 +60059,8 @@
       <c r="F169" s="13"/>
       <c r="G169" s="4"/>
       <c r="H169" s="13"/>
-      <c r="I169" s="4"/>
-      <c r="K169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -60460,9 +60077,8 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
-      <c r="AB169" s="2"/>
-    </row>
-    <row r="170" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="170" spans="1:27" ht="15.75" customHeight="1">
       <c r="A170" s="14"/>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
@@ -60471,8 +60087,8 @@
       <c r="F170" s="13"/>
       <c r="G170" s="4"/>
       <c r="H170" s="13"/>
-      <c r="I170" s="4"/>
-      <c r="K170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -60489,9 +60105,8 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
-      <c r="AB170" s="2"/>
-    </row>
-    <row r="171" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="171" spans="1:27" ht="15.75" customHeight="1">
       <c r="A171" s="14"/>
       <c r="B171" s="3"/>
       <c r="C171" s="4"/>
@@ -60500,8 +60115,8 @@
       <c r="F171" s="13"/>
       <c r="G171" s="4"/>
       <c r="H171" s="13"/>
-      <c r="I171" s="4"/>
-      <c r="K171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -60518,9 +60133,8 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
-      <c r="AB171" s="2"/>
-    </row>
-    <row r="172" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="172" spans="1:27" ht="15.75" customHeight="1">
       <c r="A172" s="14"/>
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
@@ -60529,8 +60143,8 @@
       <c r="F172" s="13"/>
       <c r="G172" s="4"/>
       <c r="H172" s="13"/>
-      <c r="I172" s="4"/>
-      <c r="K172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -60547,9 +60161,8 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
-    </row>
-    <row r="173" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="173" spans="1:27" ht="15.75" customHeight="1">
       <c r="A173" s="14"/>
       <c r="B173" s="3"/>
       <c r="C173" s="4"/>
@@ -60558,8 +60171,8 @@
       <c r="F173" s="13"/>
       <c r="G173" s="4"/>
       <c r="H173" s="13"/>
-      <c r="I173" s="4"/>
-      <c r="K173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -60576,9 +60189,8 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
-      <c r="AB173" s="2"/>
-    </row>
-    <row r="174" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="174" spans="1:27" ht="15.75" customHeight="1">
       <c r="A174" s="14"/>
       <c r="B174" s="3"/>
       <c r="C174" s="4"/>
@@ -60587,8 +60199,8 @@
       <c r="F174" s="13"/>
       <c r="G174" s="4"/>
       <c r="H174" s="13"/>
-      <c r="I174" s="4"/>
-      <c r="K174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -60605,9 +60217,8 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
-      <c r="AB174" s="2"/>
-    </row>
-    <row r="175" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="175" spans="1:27" ht="15.75" customHeight="1">
       <c r="A175" s="14"/>
       <c r="B175" s="3"/>
       <c r="C175" s="4"/>
@@ -60616,8 +60227,8 @@
       <c r="F175" s="13"/>
       <c r="G175" s="4"/>
       <c r="H175" s="13"/>
-      <c r="I175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -60634,9 +60245,8 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
-      <c r="AB175" s="2"/>
-    </row>
-    <row r="176" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="176" spans="1:27" ht="15.75" customHeight="1">
       <c r="A176" s="14"/>
       <c r="B176" s="3"/>
       <c r="C176" s="4"/>
@@ -60645,8 +60255,8 @@
       <c r="F176" s="13"/>
       <c r="G176" s="4"/>
       <c r="H176" s="13"/>
-      <c r="I176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -60663,9 +60273,8 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
-      <c r="AB176" s="2"/>
-    </row>
-    <row r="177" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="177" spans="1:27" ht="15.75" customHeight="1">
       <c r="A177" s="14"/>
       <c r="B177" s="3"/>
       <c r="C177" s="4"/>
@@ -60674,8 +60283,8 @@
       <c r="F177" s="13"/>
       <c r="G177" s="4"/>
       <c r="H177" s="13"/>
-      <c r="I177" s="4"/>
-      <c r="K177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -60692,9 +60301,8 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
-      <c r="AB177" s="2"/>
-    </row>
-    <row r="178" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="178" spans="1:27" ht="15.75" customHeight="1">
       <c r="A178" s="14"/>
       <c r="B178" s="3"/>
       <c r="C178" s="4"/>
@@ -60703,8 +60311,8 @@
       <c r="F178" s="13"/>
       <c r="G178" s="4"/>
       <c r="H178" s="13"/>
-      <c r="I178" s="4"/>
-      <c r="K178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -60721,9 +60329,8 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
-      <c r="AB178" s="2"/>
-    </row>
-    <row r="179" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="179" spans="1:27" ht="15.75" customHeight="1">
       <c r="A179" s="14"/>
       <c r="B179" s="3"/>
       <c r="C179" s="4"/>
@@ -60732,8 +60339,8 @@
       <c r="F179" s="13"/>
       <c r="G179" s="4"/>
       <c r="H179" s="13"/>
-      <c r="I179" s="4"/>
-      <c r="K179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -60750,9 +60357,8 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
-      <c r="AB179" s="2"/>
-    </row>
-    <row r="180" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="180" spans="1:27" ht="15.75" customHeight="1">
       <c r="A180" s="14"/>
       <c r="B180" s="3"/>
       <c r="C180" s="4"/>
@@ -60761,8 +60367,8 @@
       <c r="F180" s="13"/>
       <c r="G180" s="4"/>
       <c r="H180" s="13"/>
-      <c r="I180" s="4"/>
-      <c r="K180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -60779,9 +60385,8 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
-      <c r="AB180" s="2"/>
-    </row>
-    <row r="181" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="181" spans="1:27" ht="15.75" customHeight="1">
       <c r="A181" s="14"/>
       <c r="B181" s="3"/>
       <c r="C181" s="4"/>
@@ -60790,8 +60395,8 @@
       <c r="F181" s="13"/>
       <c r="G181" s="4"/>
       <c r="H181" s="13"/>
-      <c r="I181" s="4"/>
-      <c r="K181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -60808,9 +60413,8 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
-      <c r="AB181" s="2"/>
-    </row>
-    <row r="182" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="182" spans="1:27" ht="15.75" customHeight="1">
       <c r="A182" s="14"/>
       <c r="B182" s="3"/>
       <c r="C182" s="4"/>
@@ -60819,8 +60423,8 @@
       <c r="F182" s="13"/>
       <c r="G182" s="4"/>
       <c r="H182" s="13"/>
-      <c r="I182" s="4"/>
-      <c r="K182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -60837,9 +60441,8 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
-      <c r="AB182" s="2"/>
-    </row>
-    <row r="183" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="183" spans="1:27" ht="15.75" customHeight="1">
       <c r="A183" s="14"/>
       <c r="B183" s="3"/>
       <c r="C183" s="4"/>
@@ -60848,8 +60451,8 @@
       <c r="F183" s="13"/>
       <c r="G183" s="4"/>
       <c r="H183" s="13"/>
-      <c r="I183" s="4"/>
-      <c r="K183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -60866,9 +60469,8 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
-      <c r="AB183" s="2"/>
-    </row>
-    <row r="184" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="184" spans="1:27" ht="15.75" customHeight="1">
       <c r="A184" s="14"/>
       <c r="B184" s="3"/>
       <c r="C184" s="4"/>
@@ -60877,8 +60479,8 @@
       <c r="F184" s="13"/>
       <c r="G184" s="4"/>
       <c r="H184" s="13"/>
-      <c r="I184" s="4"/>
-      <c r="K184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -60895,9 +60497,8 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
-      <c r="AB184" s="2"/>
-    </row>
-    <row r="185" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="185" spans="1:27" ht="15.75" customHeight="1">
       <c r="A185" s="14"/>
       <c r="B185" s="3"/>
       <c r="C185" s="4"/>
@@ -60906,8 +60507,8 @@
       <c r="F185" s="13"/>
       <c r="G185" s="4"/>
       <c r="H185" s="13"/>
-      <c r="I185" s="4"/>
-      <c r="K185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -60924,9 +60525,8 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
-      <c r="AB185" s="2"/>
-    </row>
-    <row r="186" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="186" spans="1:27" ht="15.75" customHeight="1">
       <c r="A186" s="14"/>
       <c r="B186" s="3"/>
       <c r="C186" s="4"/>
@@ -60935,8 +60535,8 @@
       <c r="F186" s="13"/>
       <c r="G186" s="4"/>
       <c r="H186" s="13"/>
-      <c r="I186" s="4"/>
-      <c r="K186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
@@ -60953,9 +60553,8 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
-      <c r="AB186" s="2"/>
-    </row>
-    <row r="187" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="187" spans="1:27" ht="15.75" customHeight="1">
       <c r="A187" s="14"/>
       <c r="B187" s="3"/>
       <c r="C187" s="4"/>
@@ -60964,8 +60563,8 @@
       <c r="F187" s="13"/>
       <c r="G187" s="4"/>
       <c r="H187" s="13"/>
-      <c r="I187" s="4"/>
-      <c r="K187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -60982,9 +60581,8 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
-      <c r="AB187" s="2"/>
-    </row>
-    <row r="188" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="188" spans="1:27" ht="15.75" customHeight="1">
       <c r="A188" s="14"/>
       <c r="B188" s="3"/>
       <c r="C188" s="4"/>
@@ -60993,8 +60591,8 @@
       <c r="F188" s="13"/>
       <c r="G188" s="4"/>
       <c r="H188" s="13"/>
-      <c r="I188" s="4"/>
-      <c r="K188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
@@ -61011,9 +60609,8 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
-      <c r="AB188" s="2"/>
-    </row>
-    <row r="189" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="189" spans="1:27" ht="15.75" customHeight="1">
       <c r="A189" s="14"/>
       <c r="B189" s="3"/>
       <c r="C189" s="4"/>
@@ -61022,8 +60619,8 @@
       <c r="F189" s="13"/>
       <c r="G189" s="4"/>
       <c r="H189" s="13"/>
-      <c r="I189" s="4"/>
-      <c r="K189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -61040,9 +60637,8 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
-      <c r="AB189" s="2"/>
-    </row>
-    <row r="190" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="190" spans="1:27" ht="15.75" customHeight="1">
       <c r="A190" s="14"/>
       <c r="B190" s="3"/>
       <c r="C190" s="4"/>
@@ -61051,8 +60647,8 @@
       <c r="F190" s="13"/>
       <c r="G190" s="4"/>
       <c r="H190" s="13"/>
-      <c r="I190" s="4"/>
-      <c r="K190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -61069,9 +60665,8 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
-      <c r="AB190" s="2"/>
-    </row>
-    <row r="191" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="191" spans="1:27" ht="15.75" customHeight="1">
       <c r="A191" s="14"/>
       <c r="B191" s="3"/>
       <c r="C191" s="4"/>
@@ -61080,8 +60675,8 @@
       <c r="F191" s="13"/>
       <c r="G191" s="4"/>
       <c r="H191" s="13"/>
-      <c r="I191" s="4"/>
-      <c r="K191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -61098,9 +60693,8 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
-      <c r="AB191" s="2"/>
-    </row>
-    <row r="192" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="192" spans="1:27" ht="15.75" customHeight="1">
       <c r="A192" s="14"/>
       <c r="B192" s="3"/>
       <c r="C192" s="4"/>
@@ -61109,8 +60703,8 @@
       <c r="F192" s="13"/>
       <c r="G192" s="4"/>
       <c r="H192" s="13"/>
-      <c r="I192" s="4"/>
-      <c r="K192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -61127,9 +60721,8 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
-      <c r="AB192" s="2"/>
-    </row>
-    <row r="193" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="193" spans="1:27" ht="15.75" customHeight="1">
       <c r="A193" s="14"/>
       <c r="B193" s="3"/>
       <c r="C193" s="4"/>
@@ -61138,8 +60731,8 @@
       <c r="F193" s="13"/>
       <c r="G193" s="4"/>
       <c r="H193" s="13"/>
-      <c r="I193" s="4"/>
-      <c r="K193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -61156,9 +60749,8 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
-      <c r="AB193" s="2"/>
-    </row>
-    <row r="194" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="194" spans="1:27" ht="15.75" customHeight="1">
       <c r="A194" s="14"/>
       <c r="B194" s="3"/>
       <c r="C194" s="4"/>
@@ -61167,8 +60759,8 @@
       <c r="F194" s="13"/>
       <c r="G194" s="4"/>
       <c r="H194" s="13"/>
-      <c r="I194" s="4"/>
-      <c r="K194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -61185,9 +60777,8 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
-      <c r="AB194" s="2"/>
-    </row>
-    <row r="195" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="195" spans="1:27" ht="15.75" customHeight="1">
       <c r="A195" s="14"/>
       <c r="B195" s="3"/>
       <c r="C195" s="4"/>
@@ -61196,8 +60787,8 @@
       <c r="F195" s="13"/>
       <c r="G195" s="4"/>
       <c r="H195" s="13"/>
-      <c r="I195" s="4"/>
-      <c r="K195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -61214,9 +60805,8 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
-      <c r="AB195" s="2"/>
-    </row>
-    <row r="196" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="196" spans="1:27" ht="15.75" customHeight="1">
       <c r="A196" s="14"/>
       <c r="B196" s="3"/>
       <c r="C196" s="4"/>
@@ -61225,8 +60815,8 @@
       <c r="F196" s="13"/>
       <c r="G196" s="4"/>
       <c r="H196" s="13"/>
-      <c r="I196" s="4"/>
-      <c r="K196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -61243,9 +60833,8 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
-      <c r="AB196" s="2"/>
-    </row>
-    <row r="197" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="197" spans="1:27" ht="15.75" customHeight="1">
       <c r="A197" s="14"/>
       <c r="B197" s="3"/>
       <c r="C197" s="4"/>
@@ -61254,8 +60843,8 @@
       <c r="F197" s="13"/>
       <c r="G197" s="4"/>
       <c r="H197" s="13"/>
-      <c r="I197" s="4"/>
-      <c r="K197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -61272,9 +60861,8 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
-      <c r="AB197" s="2"/>
-    </row>
-    <row r="198" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="198" spans="1:27" ht="15.75" customHeight="1">
       <c r="A198" s="14"/>
       <c r="B198" s="3"/>
       <c r="C198" s="4"/>
@@ -61283,8 +60871,8 @@
       <c r="F198" s="13"/>
       <c r="G198" s="4"/>
       <c r="H198" s="13"/>
-      <c r="I198" s="4"/>
-      <c r="K198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -61301,9 +60889,8 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
-      <c r="AB198" s="2"/>
-    </row>
-    <row r="199" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="199" spans="1:27" ht="15.75" customHeight="1">
       <c r="A199" s="14"/>
       <c r="B199" s="3"/>
       <c r="C199" s="4"/>
@@ -61312,8 +60899,8 @@
       <c r="F199" s="13"/>
       <c r="G199" s="4"/>
       <c r="H199" s="13"/>
-      <c r="I199" s="4"/>
-      <c r="K199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -61330,9 +60917,8 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
-      <c r="AB199" s="2"/>
-    </row>
-    <row r="200" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="200" spans="1:27" ht="15.75" customHeight="1">
       <c r="A200" s="14"/>
       <c r="B200" s="3"/>
       <c r="C200" s="4"/>
@@ -61341,8 +60927,8 @@
       <c r="F200" s="13"/>
       <c r="G200" s="4"/>
       <c r="H200" s="13"/>
-      <c r="I200" s="4"/>
-      <c r="K200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="2"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -61359,9 +60945,8 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
-      <c r="AB200" s="2"/>
-    </row>
-    <row r="201" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="201" spans="1:27" ht="15.75" customHeight="1">
       <c r="A201" s="14"/>
       <c r="B201" s="3"/>
       <c r="C201" s="4"/>
@@ -61370,8 +60955,8 @@
       <c r="F201" s="13"/>
       <c r="G201" s="4"/>
       <c r="H201" s="13"/>
-      <c r="I201" s="4"/>
-      <c r="K201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="2"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -61388,9 +60973,8 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
-      <c r="AB201" s="2"/>
-    </row>
-    <row r="202" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="202" spans="1:27" ht="15.75" customHeight="1">
       <c r="A202" s="14"/>
       <c r="B202" s="3"/>
       <c r="C202" s="4"/>
@@ -61399,8 +60983,8 @@
       <c r="F202" s="13"/>
       <c r="G202" s="4"/>
       <c r="H202" s="13"/>
-      <c r="I202" s="4"/>
-      <c r="K202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="2"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -61417,9 +61001,8 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
-      <c r="AB202" s="2"/>
-    </row>
-    <row r="203" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="203" spans="1:27" ht="15.75" customHeight="1">
       <c r="A203" s="14"/>
       <c r="B203" s="3"/>
       <c r="C203" s="4"/>
@@ -61428,8 +61011,8 @@
       <c r="F203" s="13"/>
       <c r="G203" s="4"/>
       <c r="H203" s="13"/>
-      <c r="I203" s="4"/>
-      <c r="K203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -61446,9 +61029,8 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
-      <c r="AB203" s="2"/>
-    </row>
-    <row r="204" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="204" spans="1:27" ht="15.75" customHeight="1">
       <c r="A204" s="14"/>
       <c r="B204" s="3"/>
       <c r="C204" s="4"/>
@@ -61457,8 +61039,8 @@
       <c r="F204" s="13"/>
       <c r="G204" s="4"/>
       <c r="H204" s="13"/>
-      <c r="I204" s="4"/>
-      <c r="K204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="2"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -61475,9 +61057,8 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
-      <c r="AB204" s="2"/>
-    </row>
-    <row r="205" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="205" spans="1:27" ht="15.75" customHeight="1">
       <c r="A205" s="14"/>
       <c r="B205" s="3"/>
       <c r="C205" s="4"/>
@@ -61486,8 +61067,8 @@
       <c r="F205" s="13"/>
       <c r="G205" s="4"/>
       <c r="H205" s="13"/>
-      <c r="I205" s="4"/>
-      <c r="K205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -61504,9 +61085,8 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
-      <c r="AB205" s="2"/>
-    </row>
-    <row r="206" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="206" spans="1:27" ht="15.75" customHeight="1">
       <c r="A206" s="14"/>
       <c r="B206" s="3"/>
       <c r="C206" s="4"/>
@@ -61515,8 +61095,8 @@
       <c r="F206" s="13"/>
       <c r="G206" s="4"/>
       <c r="H206" s="13"/>
-      <c r="I206" s="4"/>
-      <c r="K206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
@@ -61533,9 +61113,8 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
-      <c r="AB206" s="2"/>
-    </row>
-    <row r="207" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="207" spans="1:27" ht="15.75" customHeight="1">
       <c r="A207" s="14"/>
       <c r="B207" s="3"/>
       <c r="C207" s="4"/>
@@ -61544,8 +61123,8 @@
       <c r="F207" s="13"/>
       <c r="G207" s="4"/>
       <c r="H207" s="13"/>
-      <c r="I207" s="4"/>
-      <c r="K207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="2"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -61562,9 +61141,8 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
-      <c r="AB207" s="2"/>
-    </row>
-    <row r="208" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="208" spans="1:27" ht="15.75" customHeight="1">
       <c r="A208" s="14"/>
       <c r="B208" s="3"/>
       <c r="C208" s="4"/>
@@ -61573,8 +61151,8 @@
       <c r="F208" s="13"/>
       <c r="G208" s="4"/>
       <c r="H208" s="13"/>
-      <c r="I208" s="4"/>
-      <c r="K208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="2"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -61591,9 +61169,8 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
-      <c r="AB208" s="2"/>
-    </row>
-    <row r="209" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="209" spans="1:27" ht="15.75" customHeight="1">
       <c r="A209" s="14"/>
       <c r="B209" s="3"/>
       <c r="C209" s="4"/>
@@ -61602,8 +61179,8 @@
       <c r="F209" s="13"/>
       <c r="G209" s="4"/>
       <c r="H209" s="13"/>
-      <c r="I209" s="4"/>
-      <c r="K209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -61620,9 +61197,8 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
-      <c r="AB209" s="2"/>
-    </row>
-    <row r="210" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="210" spans="1:27" ht="15.75" customHeight="1">
       <c r="A210" s="14"/>
       <c r="B210" s="3"/>
       <c r="C210" s="4"/>
@@ -61631,8 +61207,8 @@
       <c r="F210" s="13"/>
       <c r="G210" s="4"/>
       <c r="H210" s="13"/>
-      <c r="I210" s="4"/>
-      <c r="K210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
@@ -61649,9 +61225,8 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
-      <c r="AB210" s="2"/>
-    </row>
-    <row r="211" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="211" spans="1:27" ht="15.75" customHeight="1">
       <c r="A211" s="14"/>
       <c r="B211" s="3"/>
       <c r="C211" s="4"/>
@@ -61660,8 +61235,8 @@
       <c r="F211" s="13"/>
       <c r="G211" s="4"/>
       <c r="H211" s="13"/>
-      <c r="I211" s="4"/>
-      <c r="K211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
@@ -61678,9 +61253,8 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
-      <c r="AB211" s="2"/>
-    </row>
-    <row r="212" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="212" spans="1:27" ht="15.75" customHeight="1">
       <c r="A212" s="14"/>
       <c r="B212" s="3"/>
       <c r="C212" s="4"/>
@@ -61689,8 +61263,8 @@
       <c r="F212" s="13"/>
       <c r="G212" s="4"/>
       <c r="H212" s="13"/>
-      <c r="I212" s="4"/>
-      <c r="K212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
@@ -61707,9 +61281,8 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
-      <c r="AB212" s="2"/>
-    </row>
-    <row r="213" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="213" spans="1:27" ht="15.75" customHeight="1">
       <c r="A213" s="14"/>
       <c r="B213" s="3"/>
       <c r="C213" s="4"/>
@@ -61718,8 +61291,8 @@
       <c r="F213" s="13"/>
       <c r="G213" s="4"/>
       <c r="H213" s="13"/>
-      <c r="I213" s="4"/>
-      <c r="K213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -61736,9 +61309,8 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
-      <c r="AB213" s="2"/>
-    </row>
-    <row r="214" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="214" spans="1:27" ht="15.75" customHeight="1">
       <c r="A214" s="14"/>
       <c r="B214" s="3"/>
       <c r="C214" s="4"/>
@@ -61747,8 +61319,8 @@
       <c r="F214" s="13"/>
       <c r="G214" s="4"/>
       <c r="H214" s="13"/>
-      <c r="I214" s="4"/>
-      <c r="K214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
@@ -61765,9 +61337,8 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
-      <c r="AB214" s="2"/>
-    </row>
-    <row r="215" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="215" spans="1:27" ht="15.75" customHeight="1">
       <c r="A215" s="14"/>
       <c r="B215" s="3"/>
       <c r="C215" s="4"/>
@@ -61776,8 +61347,8 @@
       <c r="F215" s="13"/>
       <c r="G215" s="4"/>
       <c r="H215" s="13"/>
-      <c r="I215" s="4"/>
-      <c r="K215" s="4"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -61794,9 +61365,8 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
-      <c r="AB215" s="2"/>
-    </row>
-    <row r="216" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="216" spans="1:27" ht="15.75" customHeight="1">
       <c r="A216" s="14"/>
       <c r="B216" s="3"/>
       <c r="C216" s="4"/>
@@ -61805,8 +61375,8 @@
       <c r="F216" s="13"/>
       <c r="G216" s="4"/>
       <c r="H216" s="13"/>
-      <c r="I216" s="4"/>
-      <c r="K216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="2"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -61823,9 +61393,8 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
-      <c r="AB216" s="2"/>
-    </row>
-    <row r="217" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="217" spans="1:27" ht="15.75" customHeight="1">
       <c r="A217" s="14"/>
       <c r="B217" s="3"/>
       <c r="C217" s="4"/>
@@ -61834,8 +61403,8 @@
       <c r="F217" s="13"/>
       <c r="G217" s="4"/>
       <c r="H217" s="13"/>
-      <c r="I217" s="4"/>
-      <c r="K217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="2"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
@@ -61852,9 +61421,8 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
-      <c r="AB217" s="2"/>
-    </row>
-    <row r="218" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="218" spans="1:27" ht="15.75" customHeight="1">
       <c r="A218" s="14"/>
       <c r="B218" s="3"/>
       <c r="C218" s="4"/>
@@ -61863,8 +61431,8 @@
       <c r="F218" s="13"/>
       <c r="G218" s="4"/>
       <c r="H218" s="13"/>
-      <c r="I218" s="4"/>
-      <c r="K218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
@@ -61881,9 +61449,8 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
-      <c r="AB218" s="2"/>
-    </row>
-    <row r="219" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="219" spans="1:27" ht="15.75" customHeight="1">
       <c r="A219" s="14"/>
       <c r="B219" s="3"/>
       <c r="C219" s="4"/>
@@ -61892,8 +61459,8 @@
       <c r="F219" s="13"/>
       <c r="G219" s="4"/>
       <c r="H219" s="13"/>
-      <c r="I219" s="4"/>
-      <c r="K219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="2"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -61910,9 +61477,8 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
-      <c r="AB219" s="2"/>
-    </row>
-    <row r="220" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="220" spans="1:27" ht="15.75" customHeight="1">
       <c r="A220" s="14"/>
       <c r="B220" s="3"/>
       <c r="C220" s="4"/>
@@ -61921,8 +61487,8 @@
       <c r="F220" s="13"/>
       <c r="G220" s="4"/>
       <c r="H220" s="13"/>
-      <c r="I220" s="4"/>
-      <c r="K220" s="4"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="2"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
@@ -61939,9 +61505,8 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
-      <c r="AB220" s="2"/>
-    </row>
-    <row r="221" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="221" spans="1:27" ht="15.75" customHeight="1">
       <c r="A221" s="14"/>
       <c r="B221" s="3"/>
       <c r="C221" s="4"/>
@@ -61950,8 +61515,8 @@
       <c r="F221" s="13"/>
       <c r="G221" s="4"/>
       <c r="H221" s="13"/>
-      <c r="I221" s="4"/>
-      <c r="K221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="2"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
@@ -61968,9 +61533,8 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
-      <c r="AB221" s="2"/>
-    </row>
-    <row r="222" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="222" spans="1:27" ht="15.75" customHeight="1">
       <c r="A222" s="14"/>
       <c r="B222" s="3"/>
       <c r="C222" s="4"/>
@@ -61979,8 +61543,8 @@
       <c r="F222" s="13"/>
       <c r="G222" s="4"/>
       <c r="H222" s="13"/>
-      <c r="I222" s="4"/>
-      <c r="K222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="2"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
@@ -61997,9 +61561,8 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
-      <c r="AB222" s="2"/>
-    </row>
-    <row r="223" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="223" spans="1:27" ht="15.75" customHeight="1">
       <c r="A223" s="14"/>
       <c r="B223" s="3"/>
       <c r="C223" s="4"/>
@@ -62008,8 +61571,8 @@
       <c r="F223" s="13"/>
       <c r="G223" s="4"/>
       <c r="H223" s="13"/>
-      <c r="I223" s="4"/>
-      <c r="K223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="2"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
@@ -62026,9 +61589,8 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
-      <c r="AB223" s="2"/>
-    </row>
-    <row r="224" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="224" spans="1:27" ht="15.75" customHeight="1">
       <c r="A224" s="14"/>
       <c r="B224" s="3"/>
       <c r="C224" s="4"/>
@@ -62037,8 +61599,8 @@
       <c r="F224" s="13"/>
       <c r="G224" s="4"/>
       <c r="H224" s="13"/>
-      <c r="I224" s="4"/>
-      <c r="K224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="2"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
@@ -62055,9 +61617,8 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
-      <c r="AB224" s="2"/>
-    </row>
-    <row r="225" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="225" spans="1:27" ht="15.75" customHeight="1">
       <c r="A225" s="14"/>
       <c r="B225" s="3"/>
       <c r="C225" s="4"/>
@@ -62066,8 +61627,8 @@
       <c r="F225" s="13"/>
       <c r="G225" s="4"/>
       <c r="H225" s="13"/>
-      <c r="I225" s="4"/>
-      <c r="K225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="2"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -62084,9 +61645,8 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
-      <c r="AB225" s="2"/>
-    </row>
-    <row r="226" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="226" spans="1:27" ht="15.75" customHeight="1">
       <c r="A226" s="14"/>
       <c r="B226" s="3"/>
       <c r="C226" s="4"/>
@@ -62095,8 +61655,8 @@
       <c r="F226" s="13"/>
       <c r="G226" s="4"/>
       <c r="H226" s="13"/>
-      <c r="I226" s="4"/>
-      <c r="K226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="2"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -62113,9 +61673,8 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
-      <c r="AB226" s="2"/>
-    </row>
-    <row r="227" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="227" spans="1:27" ht="15.75" customHeight="1">
       <c r="A227" s="14"/>
       <c r="B227" s="3"/>
       <c r="C227" s="4"/>
@@ -62124,8 +61683,8 @@
       <c r="F227" s="13"/>
       <c r="G227" s="4"/>
       <c r="H227" s="13"/>
-      <c r="I227" s="4"/>
-      <c r="K227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="2"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -62142,9 +61701,8 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
-      <c r="AB227" s="2"/>
-    </row>
-    <row r="228" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="228" spans="1:27" ht="15.75" customHeight="1">
       <c r="A228" s="14"/>
       <c r="B228" s="3"/>
       <c r="C228" s="4"/>
@@ -62153,8 +61711,8 @@
       <c r="F228" s="13"/>
       <c r="G228" s="4"/>
       <c r="H228" s="13"/>
-      <c r="I228" s="4"/>
-      <c r="K228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="2"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -62171,9 +61729,8 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
-      <c r="AB228" s="2"/>
-    </row>
-    <row r="229" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="229" spans="1:27" ht="15.75" customHeight="1">
       <c r="A229" s="14"/>
       <c r="B229" s="3"/>
       <c r="C229" s="4"/>
@@ -62182,8 +61739,8 @@
       <c r="F229" s="13"/>
       <c r="G229" s="4"/>
       <c r="H229" s="13"/>
-      <c r="I229" s="4"/>
-      <c r="K229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
@@ -62200,9 +61757,8 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
-      <c r="AB229" s="2"/>
-    </row>
-    <row r="230" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="230" spans="1:27" ht="15.75" customHeight="1">
       <c r="A230" s="14"/>
       <c r="B230" s="3"/>
       <c r="C230" s="4"/>
@@ -62211,8 +61767,8 @@
       <c r="F230" s="13"/>
       <c r="G230" s="4"/>
       <c r="H230" s="13"/>
-      <c r="I230" s="4"/>
-      <c r="K230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="2"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -62229,9 +61785,8 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
-      <c r="AB230" s="2"/>
-    </row>
-    <row r="231" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="231" spans="1:27" ht="15.75" customHeight="1">
       <c r="A231" s="14"/>
       <c r="B231" s="3"/>
       <c r="C231" s="4"/>
@@ -62240,8 +61795,8 @@
       <c r="F231" s="13"/>
       <c r="G231" s="4"/>
       <c r="H231" s="13"/>
-      <c r="I231" s="4"/>
-      <c r="K231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="K231" s="2"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -62258,9 +61813,8 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
-      <c r="AB231" s="2"/>
-    </row>
-    <row r="232" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="232" spans="1:27" ht="15.75" customHeight="1">
       <c r="A232" s="14"/>
       <c r="B232" s="3"/>
       <c r="C232" s="4"/>
@@ -62269,8 +61823,8 @@
       <c r="F232" s="13"/>
       <c r="G232" s="4"/>
       <c r="H232" s="13"/>
-      <c r="I232" s="4"/>
-      <c r="K232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="2"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
@@ -62287,9 +61841,8 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
-      <c r="AB232" s="2"/>
-    </row>
-    <row r="233" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="233" spans="1:27" ht="15.75" customHeight="1">
       <c r="A233" s="14"/>
       <c r="B233" s="3"/>
       <c r="C233" s="4"/>
@@ -62298,8 +61851,8 @@
       <c r="F233" s="13"/>
       <c r="G233" s="4"/>
       <c r="H233" s="13"/>
-      <c r="I233" s="4"/>
-      <c r="K233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="K233" s="2"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
@@ -62316,9 +61869,8 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
-      <c r="AB233" s="2"/>
-    </row>
-    <row r="234" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="234" spans="1:27" ht="15.75" customHeight="1">
       <c r="A234" s="14"/>
       <c r="B234" s="3"/>
       <c r="C234" s="4"/>
@@ -62327,8 +61879,8 @@
       <c r="F234" s="13"/>
       <c r="G234" s="4"/>
       <c r="H234" s="13"/>
-      <c r="I234" s="4"/>
-      <c r="K234" s="4"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="2"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
@@ -62345,9 +61897,8 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
-      <c r="AB234" s="2"/>
-    </row>
-    <row r="235" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="235" spans="1:27" ht="15.75" customHeight="1">
       <c r="A235" s="14"/>
       <c r="B235" s="3"/>
       <c r="C235" s="4"/>
@@ -62356,8 +61907,8 @@
       <c r="F235" s="13"/>
       <c r="G235" s="4"/>
       <c r="H235" s="13"/>
-      <c r="I235" s="4"/>
-      <c r="K235" s="4"/>
+      <c r="J235" s="4"/>
+      <c r="K235" s="2"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -62374,9 +61925,8 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
-      <c r="AB235" s="2"/>
-    </row>
-    <row r="236" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="236" spans="1:27" ht="15.75" customHeight="1">
       <c r="A236" s="14"/>
       <c r="B236" s="3"/>
       <c r="C236" s="4"/>
@@ -62385,8 +61935,8 @@
       <c r="F236" s="13"/>
       <c r="G236" s="4"/>
       <c r="H236" s="13"/>
-      <c r="I236" s="4"/>
-      <c r="K236" s="4"/>
+      <c r="J236" s="4"/>
+      <c r="K236" s="2"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
@@ -62403,9 +61953,8 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
-      <c r="AB236" s="2"/>
-    </row>
-    <row r="237" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="237" spans="1:27" ht="15.75" customHeight="1">
       <c r="A237" s="14"/>
       <c r="B237" s="3"/>
       <c r="C237" s="4"/>
@@ -62414,8 +61963,8 @@
       <c r="F237" s="13"/>
       <c r="G237" s="4"/>
       <c r="H237" s="13"/>
-      <c r="I237" s="4"/>
-      <c r="K237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
@@ -62432,9 +61981,8 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
-      <c r="AB237" s="2"/>
-    </row>
-    <row r="238" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="238" spans="1:27" ht="15.75" customHeight="1">
       <c r="A238" s="14"/>
       <c r="B238" s="3"/>
       <c r="C238" s="4"/>
@@ -62443,8 +61991,8 @@
       <c r="F238" s="13"/>
       <c r="G238" s="4"/>
       <c r="H238" s="13"/>
-      <c r="I238" s="4"/>
-      <c r="K238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -62461,9 +62009,8 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
-      <c r="AB238" s="2"/>
-    </row>
-    <row r="239" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="239" spans="1:27" ht="15.75" customHeight="1">
       <c r="A239" s="14"/>
       <c r="B239" s="3"/>
       <c r="C239" s="4"/>
@@ -62472,8 +62019,8 @@
       <c r="F239" s="13"/>
       <c r="G239" s="4"/>
       <c r="H239" s="13"/>
-      <c r="I239" s="4"/>
-      <c r="K239" s="4"/>
+      <c r="J239" s="4"/>
+      <c r="K239" s="2"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -62490,9 +62037,8 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
-      <c r="AB239" s="2"/>
-    </row>
-    <row r="240" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="240" spans="1:27" ht="15.75" customHeight="1">
       <c r="A240" s="14"/>
       <c r="B240" s="3"/>
       <c r="C240" s="4"/>
@@ -62501,8 +62047,8 @@
       <c r="F240" s="13"/>
       <c r="G240" s="4"/>
       <c r="H240" s="13"/>
-      <c r="I240" s="4"/>
-      <c r="K240" s="4"/>
+      <c r="J240" s="4"/>
+      <c r="K240" s="2"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
@@ -62519,9 +62065,8 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
-      <c r="AB240" s="2"/>
-    </row>
-    <row r="241" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="241" spans="1:27" ht="15.75" customHeight="1">
       <c r="A241" s="14"/>
       <c r="B241" s="3"/>
       <c r="C241" s="4"/>
@@ -62530,8 +62075,8 @@
       <c r="F241" s="13"/>
       <c r="G241" s="4"/>
       <c r="H241" s="13"/>
-      <c r="I241" s="4"/>
-      <c r="K241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="2"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
@@ -62548,9 +62093,8 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
-      <c r="AB241" s="2"/>
-    </row>
-    <row r="242" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="242" spans="1:27" ht="15.75" customHeight="1">
       <c r="A242" s="14"/>
       <c r="B242" s="3"/>
       <c r="C242" s="4"/>
@@ -62559,8 +62103,8 @@
       <c r="F242" s="13"/>
       <c r="G242" s="4"/>
       <c r="H242" s="13"/>
-      <c r="I242" s="4"/>
-      <c r="K242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -62577,9 +62121,8 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
-      <c r="AB242" s="2"/>
-    </row>
-    <row r="243" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="243" spans="1:27" ht="15.75" customHeight="1">
       <c r="A243" s="14"/>
       <c r="B243" s="3"/>
       <c r="C243" s="4"/>
@@ -62588,8 +62131,8 @@
       <c r="F243" s="13"/>
       <c r="G243" s="4"/>
       <c r="H243" s="13"/>
-      <c r="I243" s="4"/>
-      <c r="K243" s="4"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="2"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -62606,9 +62149,8 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
-      <c r="AB243" s="2"/>
-    </row>
-    <row r="244" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="244" spans="1:27" ht="15.75" customHeight="1">
       <c r="A244" s="14"/>
       <c r="B244" s="3"/>
       <c r="C244" s="4"/>
@@ -62617,8 +62159,8 @@
       <c r="F244" s="13"/>
       <c r="G244" s="4"/>
       <c r="H244" s="13"/>
-      <c r="I244" s="4"/>
-      <c r="K244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="2"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
@@ -62635,9 +62177,8 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
-      <c r="AB244" s="2"/>
-    </row>
-    <row r="245" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="245" spans="1:27" ht="15.75" customHeight="1">
       <c r="A245" s="14"/>
       <c r="B245" s="3"/>
       <c r="C245" s="4"/>
@@ -62646,8 +62187,8 @@
       <c r="F245" s="13"/>
       <c r="G245" s="4"/>
       <c r="H245" s="13"/>
-      <c r="I245" s="4"/>
-      <c r="K245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="2"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -62664,9 +62205,8 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
-      <c r="AB245" s="2"/>
-    </row>
-    <row r="246" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="246" spans="1:27" ht="15.75" customHeight="1">
       <c r="A246" s="14"/>
       <c r="B246" s="3"/>
       <c r="C246" s="4"/>
@@ -62675,8 +62215,8 @@
       <c r="F246" s="13"/>
       <c r="G246" s="4"/>
       <c r="H246" s="13"/>
-      <c r="I246" s="4"/>
-      <c r="K246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="2"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
@@ -62693,9 +62233,8 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
-      <c r="AB246" s="2"/>
-    </row>
-    <row r="247" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="247" spans="1:27" ht="15.75" customHeight="1">
       <c r="A247" s="14"/>
       <c r="B247" s="3"/>
       <c r="C247" s="4"/>
@@ -62704,8 +62243,8 @@
       <c r="F247" s="13"/>
       <c r="G247" s="4"/>
       <c r="H247" s="13"/>
-      <c r="I247" s="4"/>
-      <c r="K247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="2"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -62722,9 +62261,8 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
-      <c r="AB247" s="2"/>
-    </row>
-    <row r="248" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="248" spans="1:27" ht="15.75" customHeight="1">
       <c r="A248" s="14"/>
       <c r="B248" s="3"/>
       <c r="C248" s="4"/>
@@ -62733,8 +62271,8 @@
       <c r="F248" s="13"/>
       <c r="G248" s="4"/>
       <c r="H248" s="13"/>
-      <c r="I248" s="4"/>
-      <c r="K248" s="4"/>
+      <c r="J248" s="4"/>
+      <c r="K248" s="2"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -62751,9 +62289,8 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
-      <c r="AB248" s="2"/>
-    </row>
-    <row r="249" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="249" spans="1:27" ht="15.75" customHeight="1">
       <c r="A249" s="14"/>
       <c r="B249" s="3"/>
       <c r="C249" s="4"/>
@@ -62762,8 +62299,8 @@
       <c r="F249" s="13"/>
       <c r="G249" s="4"/>
       <c r="H249" s="13"/>
-      <c r="I249" s="4"/>
-      <c r="K249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="K249" s="2"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
@@ -62780,9 +62317,8 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
-      <c r="AB249" s="2"/>
-    </row>
-    <row r="250" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="250" spans="1:27" ht="15.75" customHeight="1">
       <c r="A250" s="14"/>
       <c r="B250" s="3"/>
       <c r="C250" s="4"/>
@@ -62791,8 +62327,8 @@
       <c r="F250" s="13"/>
       <c r="G250" s="4"/>
       <c r="H250" s="13"/>
-      <c r="I250" s="4"/>
-      <c r="K250" s="4"/>
+      <c r="J250" s="4"/>
+      <c r="K250" s="2"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
@@ -62809,9 +62345,8 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
-      <c r="AB250" s="2"/>
-    </row>
-    <row r="251" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="251" spans="1:27" ht="15.75" customHeight="1">
       <c r="A251" s="14"/>
       <c r="B251" s="3"/>
       <c r="C251" s="4"/>
@@ -62820,8 +62355,8 @@
       <c r="F251" s="13"/>
       <c r="G251" s="4"/>
       <c r="H251" s="13"/>
-      <c r="I251" s="4"/>
-      <c r="K251" s="4"/>
+      <c r="J251" s="4"/>
+      <c r="K251" s="2"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
@@ -62838,9 +62373,8 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
-      <c r="AB251" s="2"/>
-    </row>
-    <row r="252" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="252" spans="1:27" ht="15.75" customHeight="1">
       <c r="A252" s="14"/>
       <c r="B252" s="3"/>
       <c r="C252" s="4"/>
@@ -62849,8 +62383,8 @@
       <c r="F252" s="13"/>
       <c r="G252" s="4"/>
       <c r="H252" s="13"/>
-      <c r="I252" s="4"/>
-      <c r="K252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="K252" s="2"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
@@ -62867,9 +62401,8 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
-      <c r="AB252" s="2"/>
-    </row>
-    <row r="253" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="253" spans="1:27" ht="15.75" customHeight="1">
       <c r="A253" s="14"/>
       <c r="B253" s="3"/>
       <c r="C253" s="4"/>
@@ -62878,8 +62411,8 @@
       <c r="F253" s="13"/>
       <c r="G253" s="4"/>
       <c r="H253" s="13"/>
-      <c r="I253" s="4"/>
-      <c r="K253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="K253" s="2"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
@@ -62896,9 +62429,8 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
-      <c r="AB253" s="2"/>
-    </row>
-    <row r="254" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="254" spans="1:27" ht="15.75" customHeight="1">
       <c r="A254" s="14"/>
       <c r="B254" s="3"/>
       <c r="C254" s="4"/>
@@ -62907,8 +62439,8 @@
       <c r="F254" s="13"/>
       <c r="G254" s="4"/>
       <c r="H254" s="13"/>
-      <c r="I254" s="4"/>
-      <c r="K254" s="4"/>
+      <c r="J254" s="4"/>
+      <c r="K254" s="2"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -62925,9 +62457,8 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
-      <c r="AB254" s="2"/>
-    </row>
-    <row r="255" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="255" spans="1:27" ht="15.75" customHeight="1">
       <c r="A255" s="14"/>
       <c r="B255" s="3"/>
       <c r="C255" s="4"/>
@@ -62936,8 +62467,8 @@
       <c r="F255" s="13"/>
       <c r="G255" s="4"/>
       <c r="H255" s="13"/>
-      <c r="I255" s="4"/>
-      <c r="K255" s="4"/>
+      <c r="J255" s="4"/>
+      <c r="K255" s="2"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -62954,9 +62485,8 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
-      <c r="AB255" s="2"/>
-    </row>
-    <row r="256" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="256" spans="1:27" ht="15.75" customHeight="1">
       <c r="A256" s="14"/>
       <c r="B256" s="3"/>
       <c r="C256" s="4"/>
@@ -62965,8 +62495,8 @@
       <c r="F256" s="13"/>
       <c r="G256" s="4"/>
       <c r="H256" s="13"/>
-      <c r="I256" s="4"/>
-      <c r="K256" s="4"/>
+      <c r="J256" s="4"/>
+      <c r="K256" s="2"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
@@ -62983,9 +62513,8 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
-      <c r="AB256" s="2"/>
-    </row>
-    <row r="257" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="257" spans="1:27" ht="15.75" customHeight="1">
       <c r="A257" s="14"/>
       <c r="B257" s="3"/>
       <c r="C257" s="4"/>
@@ -62994,8 +62523,8 @@
       <c r="F257" s="13"/>
       <c r="G257" s="4"/>
       <c r="H257" s="13"/>
-      <c r="I257" s="4"/>
-      <c r="K257" s="4"/>
+      <c r="J257" s="4"/>
+      <c r="K257" s="2"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
@@ -63012,9 +62541,8 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
-      <c r="AB257" s="2"/>
-    </row>
-    <row r="258" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="258" spans="1:27" ht="15.75" customHeight="1">
       <c r="A258" s="14"/>
       <c r="B258" s="3"/>
       <c r="C258" s="4"/>
@@ -63023,8 +62551,8 @@
       <c r="F258" s="13"/>
       <c r="G258" s="4"/>
       <c r="H258" s="13"/>
-      <c r="I258" s="4"/>
-      <c r="K258" s="4"/>
+      <c r="J258" s="4"/>
+      <c r="K258" s="2"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
@@ -63041,9 +62569,8 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
-      <c r="AB258" s="2"/>
-    </row>
-    <row r="259" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="259" spans="1:27" ht="15.75" customHeight="1">
       <c r="A259" s="14"/>
       <c r="B259" s="3"/>
       <c r="C259" s="4"/>
@@ -63052,8 +62579,8 @@
       <c r="F259" s="13"/>
       <c r="G259" s="4"/>
       <c r="H259" s="13"/>
-      <c r="I259" s="4"/>
-      <c r="K259" s="4"/>
+      <c r="J259" s="4"/>
+      <c r="K259" s="2"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
@@ -63070,9 +62597,8 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
-      <c r="AB259" s="2"/>
-    </row>
-    <row r="260" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="260" spans="1:27" ht="15.75" customHeight="1">
       <c r="A260" s="14"/>
       <c r="B260" s="3"/>
       <c r="C260" s="4"/>
@@ -63081,8 +62607,8 @@
       <c r="F260" s="13"/>
       <c r="G260" s="4"/>
       <c r="H260" s="13"/>
-      <c r="I260" s="4"/>
-      <c r="K260" s="4"/>
+      <c r="J260" s="4"/>
+      <c r="K260" s="2"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -63099,9 +62625,8 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
-      <c r="AB260" s="2"/>
-    </row>
-    <row r="261" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="261" spans="1:27" ht="15.75" customHeight="1">
       <c r="A261" s="14"/>
       <c r="B261" s="3"/>
       <c r="C261" s="4"/>
@@ -63110,8 +62635,8 @@
       <c r="F261" s="13"/>
       <c r="G261" s="4"/>
       <c r="H261" s="13"/>
-      <c r="I261" s="4"/>
-      <c r="K261" s="4"/>
+      <c r="J261" s="4"/>
+      <c r="K261" s="2"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -63128,9 +62653,8 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
-      <c r="AB261" s="2"/>
-    </row>
-    <row r="262" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="262" spans="1:27" ht="15.75" customHeight="1">
       <c r="A262" s="14"/>
       <c r="B262" s="3"/>
       <c r="C262" s="4"/>
@@ -63139,8 +62663,8 @@
       <c r="F262" s="13"/>
       <c r="G262" s="4"/>
       <c r="H262" s="13"/>
-      <c r="I262" s="4"/>
-      <c r="K262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="K262" s="2"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -63157,9 +62681,8 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
-      <c r="AB262" s="2"/>
-    </row>
-    <row r="263" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="263" spans="1:27" ht="15.75" customHeight="1">
       <c r="A263" s="14"/>
       <c r="B263" s="3"/>
       <c r="C263" s="4"/>
@@ -63168,8 +62691,8 @@
       <c r="F263" s="13"/>
       <c r="G263" s="4"/>
       <c r="H263" s="13"/>
-      <c r="I263" s="4"/>
-      <c r="K263" s="4"/>
+      <c r="J263" s="4"/>
+      <c r="K263" s="2"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -63186,9 +62709,8 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
-      <c r="AB263" s="2"/>
-    </row>
-    <row r="264" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="264" spans="1:27" ht="15.75" customHeight="1">
       <c r="A264" s="14"/>
       <c r="B264" s="3"/>
       <c r="C264" s="4"/>
@@ -63197,8 +62719,8 @@
       <c r="F264" s="13"/>
       <c r="G264" s="4"/>
       <c r="H264" s="13"/>
-      <c r="I264" s="4"/>
-      <c r="K264" s="4"/>
+      <c r="J264" s="4"/>
+      <c r="K264" s="2"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
@@ -63215,9 +62737,8 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
-      <c r="AB264" s="2"/>
-    </row>
-    <row r="265" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="265" spans="1:27" ht="15.75" customHeight="1">
       <c r="A265" s="14"/>
       <c r="B265" s="3"/>
       <c r="C265" s="4"/>
@@ -63226,8 +62747,8 @@
       <c r="F265" s="13"/>
       <c r="G265" s="4"/>
       <c r="H265" s="13"/>
-      <c r="I265" s="4"/>
-      <c r="K265" s="4"/>
+      <c r="J265" s="4"/>
+      <c r="K265" s="2"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
@@ -63244,9 +62765,8 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
-      <c r="AB265" s="2"/>
-    </row>
-    <row r="266" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="266" spans="1:27" ht="15.75" customHeight="1">
       <c r="A266" s="14"/>
       <c r="B266" s="3"/>
       <c r="C266" s="4"/>
@@ -63255,8 +62775,8 @@
       <c r="F266" s="13"/>
       <c r="G266" s="4"/>
       <c r="H266" s="13"/>
-      <c r="I266" s="4"/>
-      <c r="K266" s="4"/>
+      <c r="J266" s="4"/>
+      <c r="K266" s="2"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
@@ -63273,9 +62793,8 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
-      <c r="AB266" s="2"/>
-    </row>
-    <row r="267" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="267" spans="1:27" ht="15.75" customHeight="1">
       <c r="A267" s="14"/>
       <c r="B267" s="3"/>
       <c r="C267" s="4"/>
@@ -63284,8 +62803,8 @@
       <c r="F267" s="13"/>
       <c r="G267" s="4"/>
       <c r="H267" s="13"/>
-      <c r="I267" s="4"/>
-      <c r="K267" s="4"/>
+      <c r="J267" s="4"/>
+      <c r="K267" s="2"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -63302,9 +62821,8 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
-      <c r="AB267" s="2"/>
-    </row>
-    <row r="268" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="268" spans="1:27" ht="15.75" customHeight="1">
       <c r="A268" s="14"/>
       <c r="B268" s="3"/>
       <c r="C268" s="4"/>
@@ -63313,8 +62831,8 @@
       <c r="F268" s="13"/>
       <c r="G268" s="4"/>
       <c r="H268" s="13"/>
-      <c r="I268" s="4"/>
-      <c r="K268" s="4"/>
+      <c r="J268" s="4"/>
+      <c r="K268" s="2"/>
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
@@ -63331,9 +62849,8 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
-      <c r="AB268" s="2"/>
-    </row>
-    <row r="269" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="269" spans="1:27" ht="15.75" customHeight="1">
       <c r="A269" s="14"/>
       <c r="B269" s="3"/>
       <c r="C269" s="4"/>
@@ -63342,8 +62859,8 @@
       <c r="F269" s="13"/>
       <c r="G269" s="4"/>
       <c r="H269" s="13"/>
-      <c r="I269" s="4"/>
-      <c r="K269" s="4"/>
+      <c r="J269" s="4"/>
+      <c r="K269" s="2"/>
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
@@ -63360,9 +62877,8 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
-      <c r="AB269" s="2"/>
-    </row>
-    <row r="270" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="270" spans="1:27" ht="15.75" customHeight="1">
       <c r="A270" s="14"/>
       <c r="B270" s="3"/>
       <c r="C270" s="4"/>
@@ -63371,8 +62887,8 @@
       <c r="F270" s="13"/>
       <c r="G270" s="4"/>
       <c r="H270" s="13"/>
-      <c r="I270" s="4"/>
-      <c r="K270" s="4"/>
+      <c r="J270" s="4"/>
+      <c r="K270" s="2"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
@@ -63389,9 +62905,8 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
-      <c r="AB270" s="2"/>
-    </row>
-    <row r="271" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="271" spans="1:27" ht="15.75" customHeight="1">
       <c r="A271" s="14"/>
       <c r="B271" s="3"/>
       <c r="C271" s="4"/>
@@ -63400,8 +62915,8 @@
       <c r="F271" s="13"/>
       <c r="G271" s="4"/>
       <c r="H271" s="13"/>
-      <c r="I271" s="4"/>
-      <c r="K271" s="4"/>
+      <c r="J271" s="4"/>
+      <c r="K271" s="2"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -63418,9 +62933,8 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
-      <c r="AB271" s="2"/>
-    </row>
-    <row r="272" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="272" spans="1:27" ht="15.75" customHeight="1">
       <c r="A272" s="14"/>
       <c r="B272" s="3"/>
       <c r="C272" s="4"/>
@@ -63429,8 +62943,8 @@
       <c r="F272" s="13"/>
       <c r="G272" s="4"/>
       <c r="H272" s="13"/>
-      <c r="I272" s="4"/>
-      <c r="K272" s="4"/>
+      <c r="J272" s="4"/>
+      <c r="K272" s="2"/>
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
@@ -63447,9 +62961,8 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
-      <c r="AB272" s="2"/>
-    </row>
-    <row r="273" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="273" spans="1:27" ht="15.75" customHeight="1">
       <c r="A273" s="14"/>
       <c r="B273" s="3"/>
       <c r="C273" s="4"/>
@@ -63458,8 +62971,8 @@
       <c r="F273" s="13"/>
       <c r="G273" s="4"/>
       <c r="H273" s="13"/>
-      <c r="I273" s="4"/>
-      <c r="K273" s="4"/>
+      <c r="J273" s="4"/>
+      <c r="K273" s="2"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -63476,9 +62989,8 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
-      <c r="AB273" s="2"/>
-    </row>
-    <row r="274" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="274" spans="1:27" ht="15.75" customHeight="1">
       <c r="A274" s="14"/>
       <c r="B274" s="3"/>
       <c r="C274" s="4"/>
@@ -63487,8 +62999,8 @@
       <c r="F274" s="13"/>
       <c r="G274" s="4"/>
       <c r="H274" s="13"/>
-      <c r="I274" s="4"/>
-      <c r="K274" s="4"/>
+      <c r="J274" s="4"/>
+      <c r="K274" s="2"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -63505,9 +63017,8 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
-      <c r="AB274" s="2"/>
-    </row>
-    <row r="275" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="275" spans="1:27" ht="15.75" customHeight="1">
       <c r="A275" s="14"/>
       <c r="B275" s="3"/>
       <c r="C275" s="4"/>
@@ -63516,8 +63027,8 @@
       <c r="F275" s="13"/>
       <c r="G275" s="4"/>
       <c r="H275" s="13"/>
-      <c r="I275" s="4"/>
-      <c r="K275" s="4"/>
+      <c r="J275" s="4"/>
+      <c r="K275" s="2"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
@@ -63534,9 +63045,8 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
-      <c r="AB275" s="2"/>
-    </row>
-    <row r="276" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="276" spans="1:27" ht="15.75" customHeight="1">
       <c r="A276" s="14"/>
       <c r="B276" s="3"/>
       <c r="C276" s="4"/>
@@ -63545,8 +63055,8 @@
       <c r="F276" s="13"/>
       <c r="G276" s="4"/>
       <c r="H276" s="13"/>
-      <c r="I276" s="4"/>
-      <c r="K276" s="4"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="2"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -63563,9 +63073,8 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
-      <c r="AB276" s="2"/>
-    </row>
-    <row r="277" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="277" spans="1:27" ht="15.75" customHeight="1">
       <c r="A277" s="14"/>
       <c r="B277" s="3"/>
       <c r="C277" s="4"/>
@@ -63574,8 +63083,8 @@
       <c r="F277" s="13"/>
       <c r="G277" s="4"/>
       <c r="H277" s="13"/>
-      <c r="I277" s="4"/>
-      <c r="K277" s="4"/>
+      <c r="J277" s="4"/>
+      <c r="K277" s="2"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -63592,9 +63101,8 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
-      <c r="AB277" s="2"/>
-    </row>
-    <row r="278" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="278" spans="1:27" ht="15.75" customHeight="1">
       <c r="A278" s="14"/>
       <c r="B278" s="3"/>
       <c r="C278" s="4"/>
@@ -63603,8 +63111,8 @@
       <c r="F278" s="13"/>
       <c r="G278" s="4"/>
       <c r="H278" s="13"/>
-      <c r="I278" s="4"/>
-      <c r="K278" s="4"/>
+      <c r="J278" s="4"/>
+      <c r="K278" s="2"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -63621,9 +63129,8 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
-      <c r="AB278" s="2"/>
-    </row>
-    <row r="279" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="279" spans="1:27" ht="15.75" customHeight="1">
       <c r="A279" s="14"/>
       <c r="B279" s="3"/>
       <c r="C279" s="4"/>
@@ -63632,8 +63139,8 @@
       <c r="F279" s="13"/>
       <c r="G279" s="4"/>
       <c r="H279" s="13"/>
-      <c r="I279" s="4"/>
-      <c r="K279" s="4"/>
+      <c r="J279" s="4"/>
+      <c r="K279" s="2"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -63650,9 +63157,8 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
-      <c r="AB279" s="2"/>
-    </row>
-    <row r="280" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="280" spans="1:27" ht="15.75" customHeight="1">
       <c r="A280" s="14"/>
       <c r="B280" s="3"/>
       <c r="C280" s="4"/>
@@ -63661,8 +63167,8 @@
       <c r="F280" s="13"/>
       <c r="G280" s="4"/>
       <c r="H280" s="13"/>
-      <c r="I280" s="4"/>
-      <c r="K280" s="4"/>
+      <c r="J280" s="4"/>
+      <c r="K280" s="2"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -63679,9 +63185,8 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
-      <c r="AB280" s="2"/>
-    </row>
-    <row r="281" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="281" spans="1:27" ht="15.75" customHeight="1">
       <c r="A281" s="14"/>
       <c r="B281" s="3"/>
       <c r="C281" s="4"/>
@@ -63690,8 +63195,8 @@
       <c r="F281" s="13"/>
       <c r="G281" s="4"/>
       <c r="H281" s="13"/>
-      <c r="I281" s="4"/>
-      <c r="K281" s="4"/>
+      <c r="J281" s="4"/>
+      <c r="K281" s="2"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
@@ -63708,9 +63213,8 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
-      <c r="AB281" s="2"/>
-    </row>
-    <row r="282" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="282" spans="1:27" ht="15.75" customHeight="1">
       <c r="A282" s="14"/>
       <c r="B282" s="3"/>
       <c r="C282" s="4"/>
@@ -63719,8 +63223,8 @@
       <c r="F282" s="13"/>
       <c r="G282" s="4"/>
       <c r="H282" s="13"/>
-      <c r="I282" s="4"/>
-      <c r="K282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="2"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -63737,9 +63241,8 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
-      <c r="AB282" s="2"/>
-    </row>
-    <row r="283" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="283" spans="1:27" ht="15.75" customHeight="1">
       <c r="A283" s="14"/>
       <c r="B283" s="3"/>
       <c r="C283" s="4"/>
@@ -63748,8 +63251,8 @@
       <c r="F283" s="13"/>
       <c r="G283" s="4"/>
       <c r="H283" s="13"/>
-      <c r="I283" s="4"/>
-      <c r="K283" s="4"/>
+      <c r="J283" s="4"/>
+      <c r="K283" s="2"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -63766,9 +63269,8 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
-      <c r="AB283" s="2"/>
-    </row>
-    <row r="284" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="284" spans="1:27" ht="15.75" customHeight="1">
       <c r="A284" s="14"/>
       <c r="B284" s="3"/>
       <c r="C284" s="4"/>
@@ -63777,8 +63279,8 @@
       <c r="F284" s="13"/>
       <c r="G284" s="4"/>
       <c r="H284" s="13"/>
-      <c r="I284" s="4"/>
-      <c r="K284" s="4"/>
+      <c r="J284" s="4"/>
+      <c r="K284" s="2"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -63795,9 +63297,8 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
-      <c r="AB284" s="2"/>
-    </row>
-    <row r="285" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="285" spans="1:27" ht="15.75" customHeight="1">
       <c r="A285" s="14"/>
       <c r="B285" s="3"/>
       <c r="C285" s="4"/>
@@ -63806,8 +63307,8 @@
       <c r="F285" s="13"/>
       <c r="G285" s="4"/>
       <c r="H285" s="13"/>
-      <c r="I285" s="4"/>
-      <c r="K285" s="4"/>
+      <c r="J285" s="4"/>
+      <c r="K285" s="2"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -63824,9 +63325,8 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
-      <c r="AB285" s="2"/>
-    </row>
-    <row r="286" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="286" spans="1:27" ht="15.75" customHeight="1">
       <c r="A286" s="14"/>
       <c r="B286" s="3"/>
       <c r="C286" s="4"/>
@@ -63835,8 +63335,8 @@
       <c r="F286" s="13"/>
       <c r="G286" s="4"/>
       <c r="H286" s="13"/>
-      <c r="I286" s="4"/>
-      <c r="K286" s="4"/>
+      <c r="J286" s="4"/>
+      <c r="K286" s="2"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
@@ -63853,9 +63353,8 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
-      <c r="AB286" s="2"/>
-    </row>
-    <row r="287" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="287" spans="1:27" ht="15.75" customHeight="1">
       <c r="A287" s="14"/>
       <c r="B287" s="3"/>
       <c r="C287" s="4"/>
@@ -63864,8 +63363,8 @@
       <c r="F287" s="13"/>
       <c r="G287" s="4"/>
       <c r="H287" s="13"/>
-      <c r="I287" s="4"/>
-      <c r="K287" s="4"/>
+      <c r="J287" s="4"/>
+      <c r="K287" s="2"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
@@ -63882,9 +63381,8 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
-      <c r="AB287" s="2"/>
-    </row>
-    <row r="288" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="288" spans="1:27" ht="15.75" customHeight="1">
       <c r="A288" s="14"/>
       <c r="B288" s="3"/>
       <c r="C288" s="4"/>
@@ -63893,8 +63391,8 @@
       <c r="F288" s="13"/>
       <c r="G288" s="4"/>
       <c r="H288" s="13"/>
-      <c r="I288" s="4"/>
-      <c r="K288" s="4"/>
+      <c r="J288" s="4"/>
+      <c r="K288" s="2"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
@@ -63911,9 +63409,8 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
-      <c r="AB288" s="2"/>
-    </row>
-    <row r="289" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="289" spans="1:27" ht="15.75" customHeight="1">
       <c r="A289" s="14"/>
       <c r="B289" s="3"/>
       <c r="C289" s="4"/>
@@ -63922,8 +63419,8 @@
       <c r="F289" s="13"/>
       <c r="G289" s="4"/>
       <c r="H289" s="13"/>
-      <c r="I289" s="4"/>
-      <c r="K289" s="4"/>
+      <c r="J289" s="4"/>
+      <c r="K289" s="2"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -63940,9 +63437,8 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
-      <c r="AB289" s="2"/>
-    </row>
-    <row r="290" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="290" spans="1:27" ht="15.75" customHeight="1">
       <c r="A290" s="14"/>
       <c r="B290" s="3"/>
       <c r="C290" s="4"/>
@@ -63951,8 +63447,8 @@
       <c r="F290" s="13"/>
       <c r="G290" s="4"/>
       <c r="H290" s="13"/>
-      <c r="I290" s="4"/>
-      <c r="K290" s="4"/>
+      <c r="J290" s="4"/>
+      <c r="K290" s="2"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -63969,9 +63465,8 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
-      <c r="AB290" s="2"/>
-    </row>
-    <row r="291" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="291" spans="1:27" ht="15.75" customHeight="1">
       <c r="A291" s="14"/>
       <c r="B291" s="3"/>
       <c r="C291" s="4"/>
@@ -63980,8 +63475,8 @@
       <c r="F291" s="13"/>
       <c r="G291" s="4"/>
       <c r="H291" s="13"/>
-      <c r="I291" s="4"/>
-      <c r="K291" s="4"/>
+      <c r="J291" s="4"/>
+      <c r="K291" s="2"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
@@ -63998,9 +63493,8 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
-      <c r="AB291" s="2"/>
-    </row>
-    <row r="292" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="292" spans="1:27" ht="15.75" customHeight="1">
       <c r="A292" s="14"/>
       <c r="B292" s="3"/>
       <c r="C292" s="4"/>
@@ -64009,8 +63503,8 @@
       <c r="F292" s="13"/>
       <c r="G292" s="4"/>
       <c r="H292" s="13"/>
-      <c r="I292" s="4"/>
-      <c r="K292" s="4"/>
+      <c r="J292" s="4"/>
+      <c r="K292" s="2"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
@@ -64027,9 +63521,8 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
-      <c r="AB292" s="2"/>
-    </row>
-    <row r="293" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="293" spans="1:27" ht="15.75" customHeight="1">
       <c r="A293" s="14"/>
       <c r="B293" s="3"/>
       <c r="C293" s="4"/>
@@ -64038,8 +63531,8 @@
       <c r="F293" s="13"/>
       <c r="G293" s="4"/>
       <c r="H293" s="13"/>
-      <c r="I293" s="4"/>
-      <c r="K293" s="4"/>
+      <c r="J293" s="4"/>
+      <c r="K293" s="2"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
@@ -64056,9 +63549,8 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
-      <c r="AB293" s="2"/>
-    </row>
-    <row r="294" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="294" spans="1:27" ht="15.75" customHeight="1">
       <c r="A294" s="14"/>
       <c r="B294" s="3"/>
       <c r="C294" s="4"/>
@@ -64067,8 +63559,8 @@
       <c r="F294" s="13"/>
       <c r="G294" s="4"/>
       <c r="H294" s="13"/>
-      <c r="I294" s="4"/>
-      <c r="K294" s="4"/>
+      <c r="J294" s="4"/>
+      <c r="K294" s="2"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -64085,9 +63577,8 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
-      <c r="AB294" s="2"/>
-    </row>
-    <row r="295" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="295" spans="1:27" ht="15.75" customHeight="1">
       <c r="A295" s="14"/>
       <c r="B295" s="3"/>
       <c r="C295" s="4"/>
@@ -64096,8 +63587,8 @@
       <c r="F295" s="13"/>
       <c r="G295" s="4"/>
       <c r="H295" s="13"/>
-      <c r="I295" s="4"/>
-      <c r="K295" s="4"/>
+      <c r="J295" s="4"/>
+      <c r="K295" s="2"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -64114,9 +63605,8 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
-      <c r="AB295" s="2"/>
-    </row>
-    <row r="296" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="296" spans="1:27" ht="15.75" customHeight="1">
       <c r="A296" s="14"/>
       <c r="B296" s="3"/>
       <c r="C296" s="4"/>
@@ -64125,8 +63615,8 @@
       <c r="F296" s="13"/>
       <c r="G296" s="4"/>
       <c r="H296" s="13"/>
-      <c r="I296" s="4"/>
-      <c r="K296" s="4"/>
+      <c r="J296" s="4"/>
+      <c r="K296" s="2"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -64143,9 +63633,8 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
-      <c r="AB296" s="2"/>
-    </row>
-    <row r="297" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="297" spans="1:27" ht="15.75" customHeight="1">
       <c r="A297" s="14"/>
       <c r="B297" s="3"/>
       <c r="C297" s="4"/>
@@ -64154,8 +63643,8 @@
       <c r="F297" s="13"/>
       <c r="G297" s="4"/>
       <c r="H297" s="13"/>
-      <c r="I297" s="4"/>
-      <c r="K297" s="4"/>
+      <c r="J297" s="4"/>
+      <c r="K297" s="2"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
@@ -64172,9 +63661,8 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
-      <c r="AB297" s="2"/>
-    </row>
-    <row r="298" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="298" spans="1:27" ht="15.75" customHeight="1">
       <c r="A298" s="14"/>
       <c r="B298" s="3"/>
       <c r="C298" s="4"/>
@@ -64183,8 +63671,8 @@
       <c r="F298" s="13"/>
       <c r="G298" s="4"/>
       <c r="H298" s="13"/>
-      <c r="I298" s="4"/>
-      <c r="K298" s="4"/>
+      <c r="J298" s="4"/>
+      <c r="K298" s="2"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2"/>
@@ -64201,9 +63689,8 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
-      <c r="AB298" s="2"/>
-    </row>
-    <row r="299" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="299" spans="1:27" ht="15.75" customHeight="1">
       <c r="A299" s="14"/>
       <c r="B299" s="3"/>
       <c r="C299" s="4"/>
@@ -64212,8 +63699,8 @@
       <c r="F299" s="13"/>
       <c r="G299" s="4"/>
       <c r="H299" s="13"/>
-      <c r="I299" s="4"/>
-      <c r="K299" s="4"/>
+      <c r="J299" s="4"/>
+      <c r="K299" s="2"/>
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -64230,9 +63717,8 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
-      <c r="AB299" s="2"/>
-    </row>
-    <row r="300" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="300" spans="1:27" ht="15.75" customHeight="1">
       <c r="A300" s="14"/>
       <c r="B300" s="3"/>
       <c r="C300" s="4"/>
@@ -64241,8 +63727,8 @@
       <c r="F300" s="13"/>
       <c r="G300" s="4"/>
       <c r="H300" s="13"/>
-      <c r="I300" s="4"/>
-      <c r="K300" s="4"/>
+      <c r="J300" s="4"/>
+      <c r="K300" s="2"/>
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -64259,9 +63745,8 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
-      <c r="AB300" s="2"/>
-    </row>
-    <row r="301" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="301" spans="1:27" ht="15.75" customHeight="1">
       <c r="A301" s="14"/>
       <c r="B301" s="3"/>
       <c r="C301" s="4"/>
@@ -64270,8 +63755,8 @@
       <c r="F301" s="13"/>
       <c r="G301" s="4"/>
       <c r="H301" s="13"/>
-      <c r="I301" s="4"/>
-      <c r="K301" s="4"/>
+      <c r="J301" s="4"/>
+      <c r="K301" s="2"/>
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -64288,9 +63773,8 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
-      <c r="AB301" s="2"/>
-    </row>
-    <row r="302" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="302" spans="1:27" ht="15.75" customHeight="1">
       <c r="A302" s="14"/>
       <c r="B302" s="3"/>
       <c r="C302" s="4"/>
@@ -64299,8 +63783,8 @@
       <c r="F302" s="13"/>
       <c r="G302" s="4"/>
       <c r="H302" s="13"/>
-      <c r="I302" s="4"/>
-      <c r="K302" s="4"/>
+      <c r="J302" s="4"/>
+      <c r="K302" s="2"/>
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
@@ -64317,9 +63801,8 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
-      <c r="AB302" s="2"/>
-    </row>
-    <row r="303" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="303" spans="1:27" ht="15.75" customHeight="1">
       <c r="A303" s="14"/>
       <c r="B303" s="3"/>
       <c r="C303" s="4"/>
@@ -64328,8 +63811,8 @@
       <c r="F303" s="13"/>
       <c r="G303" s="4"/>
       <c r="H303" s="13"/>
-      <c r="I303" s="4"/>
-      <c r="K303" s="4"/>
+      <c r="J303" s="4"/>
+      <c r="K303" s="2"/>
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
@@ -64346,9 +63829,8 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
-      <c r="AB303" s="2"/>
-    </row>
-    <row r="304" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="304" spans="1:27" ht="15.75" customHeight="1">
       <c r="A304" s="14"/>
       <c r="B304" s="3"/>
       <c r="C304" s="4"/>
@@ -64357,8 +63839,8 @@
       <c r="F304" s="13"/>
       <c r="G304" s="4"/>
       <c r="H304" s="13"/>
-      <c r="I304" s="4"/>
-      <c r="K304" s="4"/>
+      <c r="J304" s="4"/>
+      <c r="K304" s="2"/>
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
@@ -64375,9 +63857,8 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
-      <c r="AB304" s="2"/>
-    </row>
-    <row r="305" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="305" spans="1:27" ht="15.75" customHeight="1">
       <c r="A305" s="14"/>
       <c r="B305" s="3"/>
       <c r="C305" s="4"/>
@@ -64386,8 +63867,8 @@
       <c r="F305" s="13"/>
       <c r="G305" s="4"/>
       <c r="H305" s="13"/>
-      <c r="I305" s="4"/>
-      <c r="K305" s="4"/>
+      <c r="J305" s="4"/>
+      <c r="K305" s="2"/>
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
@@ -64404,9 +63885,8 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
-      <c r="AB305" s="2"/>
-    </row>
-    <row r="306" spans="1:28" ht="15.75" customHeight="1">
+    </row>
+    <row r="306" spans="1:27" ht="15.75" customHeight="1">
       <c r="A306" s="14"/>
       <c r="B306" s="3"/>
       <c r="C306" s="4"/>
@@ -64415,8 +63895,8 @@
       <c r="F306" s="13"/>
       <c r="G306" s="4"/>
       <c r="H306" s="13"/>
-      <c r="I306" s="4"/>
-      <c r="K306" s="4"/>
+      <c r="J306" s="4"/>
+      <c r="K306" s="2"/>
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
@@ -64433,22 +63913,21 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
-      <c r="AB306" s="2"/>
-    </row>
-    <row r="307" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="308" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="309" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="310" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="311" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="312" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="313" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="314" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="315" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="316" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="317" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="318" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="319" spans="1:28" ht="15.75" customHeight="1"/>
-    <row r="320" spans="1:28" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="307" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="308" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="309" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="310" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="311" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="312" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="313" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="314" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="315" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="316" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="317" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="318" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="319" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="320" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="321" ht="15.75" customHeight="1"/>
     <row r="322" ht="15.75" customHeight="1"/>
     <row r="323" ht="15.75" customHeight="1"/>
@@ -65160,22 +64639,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -67281,22 +66760,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -68760,19 +68239,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="2"/>
@@ -70006,25 +69485,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>200</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I1" s="16"/>
     </row>
@@ -74806,25 +74285,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>184</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>192</v>
-      </c>
       <c r="H1" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/data/simulated_data (1).xlsx
+++ b/data/simulated_data (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\capstone-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848D1AB3-A26F-456C-8C61-D69C6A8C948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9DDED-2E18-4028-934B-9622202508FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="837" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6729" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6729" uniqueCount="207">
   <si>
     <t>user1</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>共運作 313 天，每天運作 12 小時</t>
-  </si>
-  <si>
-    <t>alert_type</t>
   </si>
   <si>
     <t>is_resolved</t>
@@ -1167,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2331,25 +2328,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="H1" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4580,22 +4577,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="2"/>
@@ -11746,39 +11743,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>203</v>
-      </c>
       <c r="C2" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -11821,7 +11818,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>20</v>
@@ -11836,7 +11833,7 @@
         <v>23</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
@@ -48205,13 +48202,13 @@
         <v>36</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
@@ -49362,34 +49359,34 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="I1" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -60848,7 +60845,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="A1:J106"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -60867,34 +60864,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
@@ -60911,7 +60908,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -60941,7 +60938,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -60971,7 +60968,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -61001,7 +60998,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -61031,7 +61028,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -61061,7 +61058,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -61091,7 +61088,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -61121,7 +61118,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -61151,7 +61148,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -61181,7 +61178,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -61211,7 +61208,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -61241,7 +61238,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -61271,7 +61268,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -61301,7 +61298,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -61331,7 +61328,7 @@
         <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -61361,7 +61358,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -61391,7 +61388,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -61421,7 +61418,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -61451,7 +61448,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -61481,7 +61478,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -61511,7 +61508,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -61541,7 +61538,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -61571,7 +61568,7 @@
         <v>42</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -61601,7 +61598,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -61631,7 +61628,7 @@
         <v>44</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -61661,7 +61658,7 @@
         <v>42</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -61691,7 +61688,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -61721,7 +61718,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -61751,7 +61748,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -61781,7 +61778,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -61811,7 +61808,7 @@
         <v>42</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -61841,7 +61838,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -61871,7 +61868,7 @@
         <v>44</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -61901,7 +61898,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -61931,7 +61928,7 @@
         <v>44</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -61961,7 +61958,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -61991,7 +61988,7 @@
         <v>42</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -62021,7 +62018,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -62051,7 +62048,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -62081,7 +62078,7 @@
         <v>42</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -62111,7 +62108,7 @@
         <v>42</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -62141,7 +62138,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
@@ -62171,7 +62168,7 @@
         <v>44</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -62201,7 +62198,7 @@
         <v>42</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -62231,7 +62228,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -62261,7 +62258,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -62291,7 +62288,7 @@
         <v>42</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
@@ -62321,7 +62318,7 @@
         <v>42</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
@@ -62351,7 +62348,7 @@
         <v>42</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
@@ -62381,7 +62378,7 @@
         <v>42</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -62411,7 +62408,7 @@
         <v>43</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -62441,7 +62438,7 @@
         <v>44</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -62471,7 +62468,7 @@
         <v>43</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
@@ -62501,7 +62498,7 @@
         <v>43</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F55" s="3">
         <v>1</v>
@@ -62531,7 +62528,7 @@
         <v>42</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="3">
         <v>1</v>
@@ -62561,7 +62558,7 @@
         <v>44</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
@@ -62591,7 +62588,7 @@
         <v>44</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
@@ -62621,7 +62618,7 @@
         <v>43</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59" s="3">
         <v>1</v>
@@ -62651,7 +62648,7 @@
         <v>42</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -62681,7 +62678,7 @@
         <v>42</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -62711,7 +62708,7 @@
         <v>43</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -62741,7 +62738,7 @@
         <v>42</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" s="3">
         <v>1</v>
@@ -62771,7 +62768,7 @@
         <v>44</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -62801,7 +62798,7 @@
         <v>44</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" s="3">
         <v>1</v>
@@ -62831,7 +62828,7 @@
         <v>42</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F66" s="3">
         <v>1</v>
@@ -62861,7 +62858,7 @@
         <v>42</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
@@ -62891,7 +62888,7 @@
         <v>42</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
@@ -62921,7 +62918,7 @@
         <v>43</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F69" s="3">
         <v>1</v>
@@ -62951,7 +62948,7 @@
         <v>44</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -62981,7 +62978,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F71" s="3">
         <v>1</v>
@@ -63011,7 +63008,7 @@
         <v>44</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F72" s="3">
         <v>1</v>
@@ -63041,7 +63038,7 @@
         <v>43</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F73" s="3">
         <v>1</v>
@@ -63071,7 +63068,7 @@
         <v>44</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F74" s="3">
         <v>1</v>
@@ -63101,7 +63098,7 @@
         <v>44</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F75" s="3">
         <v>1</v>
@@ -63131,7 +63128,7 @@
         <v>43</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -63161,7 +63158,7 @@
         <v>43</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F77" s="3">
         <v>1</v>
@@ -63191,7 +63188,7 @@
         <v>43</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F78" s="3">
         <v>1</v>
@@ -63221,7 +63218,7 @@
         <v>43</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F79" s="3">
         <v>1</v>
@@ -63251,7 +63248,7 @@
         <v>44</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -63281,7 +63278,7 @@
         <v>44</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F81" s="3">
         <v>1</v>
@@ -63311,7 +63308,7 @@
         <v>44</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
@@ -63341,7 +63338,7 @@
         <v>42</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
@@ -63371,7 +63368,7 @@
         <v>44</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F84" s="3">
         <v>1</v>
@@ -63401,7 +63398,7 @@
         <v>42</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F85" s="3">
         <v>1</v>
@@ -63431,7 +63428,7 @@
         <v>44</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F86" s="3">
         <v>1</v>
@@ -63461,7 +63458,7 @@
         <v>42</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F87" s="3">
         <v>1</v>
@@ -63491,7 +63488,7 @@
         <v>42</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F88" s="3">
         <v>1</v>
@@ -63521,7 +63518,7 @@
         <v>44</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F89" s="3">
         <v>1</v>
@@ -63551,7 +63548,7 @@
         <v>43</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F90" s="3">
         <v>1</v>
@@ -63581,7 +63578,7 @@
         <v>44</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F91" s="3">
         <v>1</v>
@@ -63611,7 +63608,7 @@
         <v>42</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
@@ -63641,7 +63638,7 @@
         <v>42</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F93" s="3">
         <v>1</v>
@@ -63671,7 +63668,7 @@
         <v>42</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F94" s="3">
         <v>1</v>
@@ -63701,7 +63698,7 @@
         <v>42</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F95" s="3">
         <v>1</v>
@@ -63731,7 +63728,7 @@
         <v>42</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -63761,7 +63758,7 @@
         <v>43</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
@@ -63791,7 +63788,7 @@
         <v>42</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -63821,7 +63818,7 @@
         <v>42</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -63851,7 +63848,7 @@
         <v>42</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -63881,7 +63878,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F101" s="3">
         <v>1</v>
@@ -63911,7 +63908,7 @@
         <v>44</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -63941,7 +63938,7 @@
         <v>42</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F103" s="3">
         <v>1</v>
@@ -63971,7 +63968,7 @@
         <v>43</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -64001,7 +63998,7 @@
         <v>44</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F105" s="3">
         <v>1</v>
@@ -64031,7 +64028,7 @@
         <v>43</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -66885,22 +66882,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -69006,22 +69003,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -70485,19 +70482,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="2"/>
@@ -71731,25 +71728,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>195</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I1" s="16"/>
     </row>

--- a/data/simulated_data (1).xlsx
+++ b/data/simulated_data (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\capstone-project-1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\capstone-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83F45AE-E4FF-473A-B783-249B0582D8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D087F03C-3C2F-425B-9563-DE036555D3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="837" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="equipment" sheetId="3" r:id="rId1"/>
@@ -177,15 +177,6 @@
   </si>
   <si>
     <t>轉速太低</t>
-  </si>
-  <si>
-    <t>輕度異常</t>
-  </si>
-  <si>
-    <t>中度異常</t>
-  </si>
-  <si>
-    <t>重度異常</t>
   </si>
   <si>
     <t>每週 6 天，1月共運作 27 天，每天運作 12 小時</t>
@@ -749,6 +740,15 @@
     <t>normal</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
 </sst>
 </file>
 
@@ -1209,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -1225,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F2" s="5">
         <v>46020.568032407406</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
@@ -1283,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F3" s="5">
         <v>46020.568032407406</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
@@ -1306,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F4" s="5">
         <v>46020.568032407406</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F5" s="5">
         <v>46020.568032407406</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -2398,25 +2398,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2442,7 +2442,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2494,7 +2494,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2520,7 +2520,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2546,7 +2546,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2572,7 +2572,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2624,7 +2624,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2650,7 +2650,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2676,7 +2676,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2702,7 +2702,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2728,7 +2728,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2754,7 +2754,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2780,7 +2780,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2806,7 +2806,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2832,7 +2832,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2858,7 +2858,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2884,7 +2884,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2910,7 +2910,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
@@ -2936,7 +2936,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
@@ -2962,7 +2962,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
@@ -2988,7 +2988,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
@@ -3014,7 +3014,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
@@ -3066,7 +3066,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
@@ -3092,7 +3092,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
@@ -3118,7 +3118,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
@@ -3170,7 +3170,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
@@ -3196,7 +3196,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
@@ -3222,7 +3222,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
@@ -3248,7 +3248,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
@@ -3274,7 +3274,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
@@ -3300,7 +3300,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
@@ -3326,7 +3326,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
@@ -3352,7 +3352,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
@@ -3378,7 +3378,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
@@ -3430,7 +3430,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
@@ -3456,7 +3456,7 @@
         <v>2E-3</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
@@ -3482,7 +3482,7 @@
         <v>2E-3</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
@@ -3508,7 +3508,7 @@
         <v>2E-3</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
@@ -3534,7 +3534,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
@@ -3560,7 +3560,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
@@ -3586,7 +3586,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
@@ -3612,7 +3612,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
@@ -3638,7 +3638,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
@@ -3664,7 +3664,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1"/>
@@ -4643,22 +4643,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="H1" s="17"/>
     </row>
@@ -4682,10 +4682,10 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4708,10 +4708,10 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4734,10 +4734,10 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4760,10 +4760,10 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4786,10 +4786,10 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4812,10 +4812,10 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4838,10 +4838,10 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4864,10 +4864,10 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4890,10 +4890,10 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4916,10 +4916,10 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4942,10 +4942,10 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4968,10 +4968,10 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8"/>
@@ -5986,39 +5986,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>17</v>
@@ -6076,7 +6076,7 @@
         <v>20</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
@@ -42445,13 +42445,13 @@
         <v>33</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
@@ -43580,8 +43580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -43602,34 +43602,34 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="I1" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -43663,7 +43663,7 @@
         <v>992</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -43712,7 +43712,7 @@
         <v>2197</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -43761,7 +43761,7 @@
         <v>2149</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -43810,7 +43810,7 @@
         <v>667</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -43859,7 +43859,7 @@
         <v>3456</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -43908,7 +43908,7 @@
         <v>913</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -43957,7 +43957,7 @@
         <v>1476</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -44006,7 +44006,7 @@
         <v>2471</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -44055,7 +44055,7 @@
         <v>1424</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -44104,7 +44104,7 @@
         <v>3053</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -44153,7 +44153,7 @@
         <v>2566</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -44202,7 +44202,7 @@
         <v>1832</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -44251,7 +44251,7 @@
         <v>1786</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -44300,7 +44300,7 @@
         <v>1853</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -44349,7 +44349,7 @@
         <v>2446</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -44398,7 +44398,7 @@
         <v>2007</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -44447,7 +44447,7 @@
         <v>1621</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -44496,7 +44496,7 @@
         <v>1501</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -44545,7 +44545,7 @@
         <v>581</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -44594,7 +44594,7 @@
         <v>2171</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -44643,7 +44643,7 @@
         <v>1863</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -44692,7 +44692,7 @@
         <v>2608</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -44741,7 +44741,7 @@
         <v>781</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -44790,7 +44790,7 @@
         <v>1074</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -44839,7 +44839,7 @@
         <v>3181</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -44888,7 +44888,7 @@
         <v>1107</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -44937,7 +44937,7 @@
         <v>2375</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -44986,7 +44986,7 @@
         <v>1990</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -45035,7 +45035,7 @@
         <v>2206</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -45084,7 +45084,7 @@
         <v>2420</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -45133,7 +45133,7 @@
         <v>1521</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -45182,7 +45182,7 @@
         <v>2009</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -45231,7 +45231,7 @@
         <v>3440</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -45280,7 +45280,7 @@
         <v>1669</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -45329,7 +45329,7 @@
         <v>3123</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -45378,7 +45378,7 @@
         <v>752</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -45427,7 +45427,7 @@
         <v>992</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -45476,7 +45476,7 @@
         <v>1666</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -45525,7 +45525,7 @@
         <v>2269</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -45574,7 +45574,7 @@
         <v>714</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -45623,7 +45623,7 @@
         <v>781</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -45672,7 +45672,7 @@
         <v>961</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -45721,7 +45721,7 @@
         <v>2744</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -45770,7 +45770,7 @@
         <v>951</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -45819,7 +45819,7 @@
         <v>1163</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -45868,7 +45868,7 @@
         <v>1518</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -45917,7 +45917,7 @@
         <v>611</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -45966,7 +45966,7 @@
         <v>760</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -46015,7 +46015,7 @@
         <v>949</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -46064,7 +46064,7 @@
         <v>1388</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -46113,7 +46113,7 @@
         <v>1747</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -46162,7 +46162,7 @@
         <v>3438</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -46211,7 +46211,7 @@
         <v>2192</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -46260,7 +46260,7 @@
         <v>1909</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -46309,7 +46309,7 @@
         <v>646</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -46358,7 +46358,7 @@
         <v>2480</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -46407,7 +46407,7 @@
         <v>2935</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -46456,7 +46456,7 @@
         <v>2352</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -46505,7 +46505,7 @@
         <v>1311</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -46554,7 +46554,7 @@
         <v>771</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -46603,7 +46603,7 @@
         <v>1729</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
@@ -46652,7 +46652,7 @@
         <v>1340</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
@@ -46701,7 +46701,7 @@
         <v>2746</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -46750,7 +46750,7 @@
         <v>2538</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -46799,7 +46799,7 @@
         <v>697</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -46848,7 +46848,7 @@
         <v>894</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -46897,7 +46897,7 @@
         <v>598</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -46946,7 +46946,7 @@
         <v>2293</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -46995,7 +46995,7 @@
         <v>2989</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -47044,7 +47044,7 @@
         <v>1794</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -47093,7 +47093,7 @@
         <v>2710</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -47142,7 +47142,7 @@
         <v>1776</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -47191,7 +47191,7 @@
         <v>3215</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -47240,7 +47240,7 @@
         <v>2963</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -47289,7 +47289,7 @@
         <v>2266</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
@@ -47338,7 +47338,7 @@
         <v>2086</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -47387,7 +47387,7 @@
         <v>1872</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -47436,7 +47436,7 @@
         <v>1606</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -47485,7 +47485,7 @@
         <v>2446</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -47534,7 +47534,7 @@
         <v>3020</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
@@ -47583,7 +47583,7 @@
         <v>2888</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -47632,7 +47632,7 @@
         <v>671</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -47681,7 +47681,7 @@
         <v>3307</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -47730,7 +47730,7 @@
         <v>1108</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -47779,7 +47779,7 @@
         <v>3071</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
@@ -47828,7 +47828,7 @@
         <v>1258</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
@@ -47877,7 +47877,7 @@
         <v>1167</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
@@ -47926,7 +47926,7 @@
         <v>2541</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
@@ -47975,7 +47975,7 @@
         <v>2264</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
@@ -48024,7 +48024,7 @@
         <v>3123</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
@@ -48073,7 +48073,7 @@
         <v>688</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
@@ -48122,7 +48122,7 @@
         <v>951</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
@@ -48171,7 +48171,7 @@
         <v>1126</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
@@ -48220,7 +48220,7 @@
         <v>655</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
@@ -48269,7 +48269,7 @@
         <v>1258</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
@@ -48318,7 +48318,7 @@
         <v>1808</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -48367,7 +48367,7 @@
         <v>1371</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
@@ -48416,7 +48416,7 @@
         <v>1527</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
@@ -48465,7 +48465,7 @@
         <v>858</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
@@ -48514,7 +48514,7 @@
         <v>2238</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
@@ -48563,7 +48563,7 @@
         <v>2540</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
@@ -48612,7 +48612,7 @@
         <v>1520</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -48661,7 +48661,7 @@
         <v>1762</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
@@ -48710,7 +48710,7 @@
         <v>3535</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
@@ -48759,7 +48759,7 @@
         <v>1841</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -55107,34 +55107,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
@@ -55148,10 +55148,10 @@
         <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -55178,10 +55178,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -55208,10 +55208,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -55238,10 +55238,10 @@
         <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -55268,10 +55268,10 @@
         <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -55298,10 +55298,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -55328,10 +55328,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -55358,10 +55358,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -55388,10 +55388,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -55418,10 +55418,10 @@
         <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -55448,10 +55448,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -55478,10 +55478,10 @@
         <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -55508,10 +55508,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -55538,10 +55538,10 @@
         <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -55568,10 +55568,10 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -55598,10 +55598,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -55628,10 +55628,10 @@
         <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -55658,10 +55658,10 @@
         <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -55688,10 +55688,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -55718,10 +55718,10 @@
         <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -55748,10 +55748,10 @@
         <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -55778,10 +55778,10 @@
         <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -55808,10 +55808,10 @@
         <v>38</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -55838,10 +55838,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -55868,10 +55868,10 @@
         <v>38</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -55898,10 +55898,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -55928,10 +55928,10 @@
         <v>24</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -55958,10 +55958,10 @@
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -55988,10 +55988,10 @@
         <v>38</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -56018,10 +56018,10 @@
         <v>38</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -56048,10 +56048,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -56078,10 +56078,10 @@
         <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -56108,10 +56108,10 @@
         <v>38</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -56138,10 +56138,10 @@
         <v>24</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -56168,10 +56168,10 @@
         <v>38</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -56198,10 +56198,10 @@
         <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -56228,10 +56228,10 @@
         <v>24</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -56258,10 +56258,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -56288,10 +56288,10 @@
         <v>24</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -56318,10 +56318,10 @@
         <v>38</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -56348,10 +56348,10 @@
         <v>38</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -56378,10 +56378,10 @@
         <v>24</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
@@ -56408,10 +56408,10 @@
         <v>24</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -56438,10 +56438,10 @@
         <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -56468,10 +56468,10 @@
         <v>38</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -56498,10 +56498,10 @@
         <v>24</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -56528,10 +56528,10 @@
         <v>26</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
@@ -56558,10 +56558,10 @@
         <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
@@ -56588,10 +56588,10 @@
         <v>26</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
@@ -56618,10 +56618,10 @@
         <v>38</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -56648,10 +56648,10 @@
         <v>26</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -56678,10 +56678,10 @@
         <v>38</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -56708,10 +56708,10 @@
         <v>38</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
@@ -56738,10 +56738,10 @@
         <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F55" s="3">
         <v>1</v>
@@ -56768,10 +56768,10 @@
         <v>26</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F56" s="3">
         <v>1</v>
@@ -56798,10 +56798,10 @@
         <v>38</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
@@ -56828,10 +56828,10 @@
         <v>38</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
@@ -56858,10 +56858,10 @@
         <v>24</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F59" s="3">
         <v>1</v>
@@ -56888,10 +56888,10 @@
         <v>24</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -56918,10 +56918,10 @@
         <v>38</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -56948,10 +56948,10 @@
         <v>26</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -56978,10 +56978,10 @@
         <v>26</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" s="3">
         <v>1</v>
@@ -57008,10 +57008,10 @@
         <v>26</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -57038,10 +57038,10 @@
         <v>38</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" s="3">
         <v>1</v>
@@ -57068,10 +57068,10 @@
         <v>38</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F66" s="3">
         <v>1</v>
@@ -57098,10 +57098,10 @@
         <v>38</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
@@ -57128,10 +57128,10 @@
         <v>26</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
@@ -57158,10 +57158,10 @@
         <v>24</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F69" s="3">
         <v>1</v>
@@ -57188,10 +57188,10 @@
         <v>38</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -57218,10 +57218,10 @@
         <v>24</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F71" s="3">
         <v>1</v>
@@ -57248,10 +57248,10 @@
         <v>24</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F72" s="3">
         <v>1</v>
@@ -57278,10 +57278,10 @@
         <v>38</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F73" s="3">
         <v>1</v>
@@ -57308,10 +57308,10 @@
         <v>26</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F74" s="3">
         <v>1</v>
@@ -57338,10 +57338,10 @@
         <v>38</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F75" s="3">
         <v>1</v>
@@ -57368,10 +57368,10 @@
         <v>38</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -57398,10 +57398,10 @@
         <v>38</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F77" s="3">
         <v>1</v>
@@ -57428,10 +57428,10 @@
         <v>26</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F78" s="3">
         <v>1</v>
@@ -57458,10 +57458,10 @@
         <v>26</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F79" s="3">
         <v>1</v>
@@ -57488,10 +57488,10 @@
         <v>24</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -57518,10 +57518,10 @@
         <v>24</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F81" s="3">
         <v>1</v>
@@ -57548,10 +57548,10 @@
         <v>26</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
@@ -57578,10 +57578,10 @@
         <v>38</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
@@ -57608,10 +57608,10 @@
         <v>24</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F84" s="3">
         <v>1</v>
@@ -57638,10 +57638,10 @@
         <v>26</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F85" s="3">
         <v>1</v>
@@ -57668,10 +57668,10 @@
         <v>38</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F86" s="3">
         <v>1</v>
@@ -57698,10 +57698,10 @@
         <v>24</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F87" s="3">
         <v>1</v>
@@ -57728,10 +57728,10 @@
         <v>26</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F88" s="3">
         <v>1</v>
@@ -57758,10 +57758,10 @@
         <v>26</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F89" s="3">
         <v>1</v>
@@ -57788,10 +57788,10 @@
         <v>26</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F90" s="3">
         <v>1</v>
@@ -57818,10 +57818,10 @@
         <v>24</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F91" s="3">
         <v>1</v>
@@ -57848,10 +57848,10 @@
         <v>26</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
@@ -57878,10 +57878,10 @@
         <v>24</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F93" s="3">
         <v>1</v>
@@ -57908,10 +57908,10 @@
         <v>38</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F94" s="3">
         <v>1</v>
@@ -57938,10 +57938,10 @@
         <v>24</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F95" s="3">
         <v>1</v>
@@ -57968,10 +57968,10 @@
         <v>26</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -57998,10 +57998,10 @@
         <v>24</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
@@ -58028,10 +58028,10 @@
         <v>24</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -58058,10 +58058,10 @@
         <v>26</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -58088,10 +58088,10 @@
         <v>26</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -58118,10 +58118,10 @@
         <v>26</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F101" s="3">
         <v>1</v>
@@ -58148,10 +58148,10 @@
         <v>26</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -58178,10 +58178,10 @@
         <v>24</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F103" s="3">
         <v>1</v>
@@ -58208,10 +58208,10 @@
         <v>38</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -58238,10 +58238,10 @@
         <v>24</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F105" s="3">
         <v>1</v>
@@ -58268,10 +58268,10 @@
         <v>26</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -61116,22 +61116,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -61154,7 +61154,7 @@
         <v>1.01E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -61177,7 +61177,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -61200,7 +61200,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -61223,7 +61223,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -61246,7 +61246,7 @@
         <v>1.4E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -61269,7 +61269,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -61292,7 +61292,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -61315,7 +61315,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -61338,7 +61338,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -61361,7 +61361,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -61384,7 +61384,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -61407,7 +61407,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -61430,7 +61430,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -61453,7 +61453,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -61476,7 +61476,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -61499,7 +61499,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -61522,7 +61522,7 @@
         <v>2E-3</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -61545,7 +61545,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -61568,7 +61568,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -61591,7 +61591,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -61614,7 +61614,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -61637,7 +61637,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -61660,7 +61660,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -61683,7 +61683,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -61706,7 +61706,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -61729,7 +61729,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -61752,7 +61752,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -61775,7 +61775,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -61798,7 +61798,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -61821,7 +61821,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -61844,7 +61844,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -61867,7 +61867,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -61890,7 +61890,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -61913,7 +61913,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -61936,7 +61936,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -61959,7 +61959,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -61982,7 +61982,7 @@
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -62005,7 +62005,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -62028,7 +62028,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -62051,7 +62051,7 @@
         <v>1E-3</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -62074,7 +62074,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -62097,7 +62097,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -62120,7 +62120,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -62143,7 +62143,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -62166,7 +62166,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -62189,7 +62189,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -62212,7 +62212,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -62235,7 +62235,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:7"/>
@@ -63217,22 +63217,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -63260,7 +63260,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -63288,7 +63288,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -63316,7 +63316,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -63344,7 +63344,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -63372,7 +63372,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -63400,7 +63400,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -63428,7 +63428,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -63456,7 +63456,7 @@
         <v>2E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -63484,7 +63484,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -63512,7 +63512,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -63540,7 +63540,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -63568,7 +63568,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -63596,7 +63596,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -63624,7 +63624,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -63652,7 +63652,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -63680,7 +63680,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -64682,7 +64682,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -64693,19 +64693,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -64725,7 +64725,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -64745,7 +64745,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -64765,7 +64765,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -64785,7 +64785,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6"/>
@@ -65810,25 +65810,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="I1" s="15"/>
     </row>
@@ -65855,7 +65855,7 @@
         <v>1.01E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -65882,7 +65882,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -65909,7 +65909,7 @@
         <v>1.01E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -65936,7 +65936,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -65963,7 +65963,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -65990,7 +65990,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -66017,7 +66017,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -66044,7 +66044,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -66071,7 +66071,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -66098,7 +66098,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -66125,7 +66125,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -66152,7 +66152,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -66179,7 +66179,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -66206,7 +66206,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -66233,7 +66233,7 @@
         <v>1.4E-3</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -66260,7 +66260,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -66287,7 +66287,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -66314,7 +66314,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -66341,7 +66341,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -66368,7 +66368,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -66395,7 +66395,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -66422,7 +66422,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -66449,7 +66449,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -66476,7 +66476,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -66503,7 +66503,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -66530,7 +66530,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -66557,7 +66557,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -66584,7 +66584,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -66611,7 +66611,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -66638,7 +66638,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -66665,7 +66665,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -66692,7 +66692,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -66719,7 +66719,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -66746,7 +66746,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -66773,7 +66773,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -66800,7 +66800,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -66827,7 +66827,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -66854,7 +66854,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -66881,7 +66881,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -66908,7 +66908,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -66935,7 +66935,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -66962,7 +66962,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -66989,7 +66989,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -67016,7 +67016,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -67043,7 +67043,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -67070,7 +67070,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -67097,7 +67097,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -67124,7 +67124,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -67151,7 +67151,7 @@
         <v>2E-3</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -67178,7 +67178,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -67205,7 +67205,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -67232,7 +67232,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -67259,7 +67259,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -67286,7 +67286,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -67313,7 +67313,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -67340,7 +67340,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -67367,7 +67367,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -67394,7 +67394,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -67421,7 +67421,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -67448,7 +67448,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -67475,7 +67475,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -67502,7 +67502,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -67529,7 +67529,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -67556,7 +67556,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I65" s="2"/>
     </row>
@@ -67583,7 +67583,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -67610,7 +67610,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -67637,7 +67637,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -67664,7 +67664,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -67691,7 +67691,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -67718,7 +67718,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -67745,7 +67745,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -67772,7 +67772,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I73" s="2"/>
     </row>
@@ -67799,7 +67799,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I74" s="2"/>
     </row>
@@ -67826,7 +67826,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I75" s="2"/>
     </row>
@@ -67853,7 +67853,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I76" s="2"/>
     </row>
@@ -67880,7 +67880,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I77" s="2"/>
     </row>
@@ -67907,7 +67907,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I78" s="2"/>
     </row>
@@ -67934,7 +67934,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I79" s="2"/>
     </row>
@@ -67961,7 +67961,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I80" s="2"/>
     </row>
@@ -67988,7 +67988,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I81" s="2"/>
     </row>
@@ -68015,7 +68015,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I82" s="2"/>
     </row>
@@ -68042,7 +68042,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I83" s="2"/>
     </row>
@@ -68069,7 +68069,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I84" s="2"/>
     </row>
@@ -68096,7 +68096,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I85" s="2"/>
     </row>
@@ -68123,7 +68123,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I86" s="2"/>
     </row>
@@ -68150,7 +68150,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I87" s="2"/>
     </row>
@@ -68177,7 +68177,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="H88" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I88" s="2"/>
     </row>
@@ -68204,7 +68204,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="H89" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -68231,7 +68231,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -68258,7 +68258,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -68285,7 +68285,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I92" s="2"/>
     </row>
@@ -68312,7 +68312,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I93" s="2"/>
     </row>
@@ -68339,7 +68339,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -68366,7 +68366,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I95" s="2"/>
     </row>
@@ -68393,7 +68393,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I96" s="2"/>
     </row>
@@ -68420,7 +68420,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="H97" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I97" s="2"/>
     </row>
@@ -68447,7 +68447,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I98" s="2"/>
     </row>
@@ -68474,7 +68474,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H99" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I99" s="2"/>
     </row>
@@ -68501,7 +68501,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H100" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I100" s="2"/>
     </row>
@@ -68528,7 +68528,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="H101" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I101" s="2"/>
     </row>
@@ -68555,7 +68555,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="H102" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I102" s="2"/>
     </row>
@@ -68582,7 +68582,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="H103" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -68609,7 +68609,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I104" s="2"/>
     </row>
@@ -68636,7 +68636,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I105" s="2"/>
     </row>
@@ -68663,7 +68663,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="H106" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I106" s="2"/>
     </row>
@@ -68690,7 +68690,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="H107" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I107" s="2"/>
     </row>
@@ -68717,7 +68717,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="H108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I108" s="2"/>
     </row>
@@ -68744,7 +68744,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I109" s="2"/>
     </row>
@@ -68771,7 +68771,7 @@
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="H110" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I110" s="2"/>
     </row>
@@ -68798,7 +68798,7 @@
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="H111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I111" s="2"/>
     </row>
@@ -68825,7 +68825,7 @@
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="H112" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I112" s="2"/>
     </row>
@@ -68852,7 +68852,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="H113" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I113" s="2"/>
     </row>
@@ -68879,7 +68879,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="H114" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I114" s="2"/>
     </row>
@@ -68906,7 +68906,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I115" s="2"/>
     </row>
@@ -68933,7 +68933,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="H116" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I116" s="2"/>
     </row>
@@ -68960,7 +68960,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -68987,7 +68987,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="H118" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I118" s="2"/>
     </row>
@@ -69014,7 +69014,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I119" s="2"/>
     </row>
@@ -69041,7 +69041,7 @@
         <v>1E-3</v>
       </c>
       <c r="H120" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I120" s="2"/>
     </row>
@@ -69068,7 +69068,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I121" s="2"/>
     </row>
@@ -69095,7 +69095,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="H122" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -69122,7 +69122,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I123" s="2"/>
     </row>
@@ -69149,7 +69149,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I124" s="2"/>
     </row>
@@ -69176,7 +69176,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I125" s="2"/>
     </row>
@@ -69203,7 +69203,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="H126" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I126" s="2"/>
     </row>
@@ -69230,7 +69230,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I127" s="2"/>
     </row>
@@ -69257,7 +69257,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="H128" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I128" s="2"/>
     </row>
@@ -69284,7 +69284,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="H129" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I129" s="2"/>
     </row>
@@ -69311,7 +69311,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="H130" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I130" s="2"/>
     </row>
@@ -69338,7 +69338,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="H131" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I131" s="2"/>
     </row>
@@ -69365,7 +69365,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I132" s="2"/>
     </row>
@@ -69392,7 +69392,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I133" s="2"/>
     </row>
@@ -69419,7 +69419,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I134" s="2"/>
     </row>
@@ -69446,7 +69446,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="H135" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I135" s="2"/>
     </row>
@@ -69473,7 +69473,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I136" s="2"/>
     </row>
@@ -69500,7 +69500,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I137" s="2"/>
     </row>
@@ -69527,7 +69527,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="H138" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I138" s="2"/>
     </row>
@@ -69554,7 +69554,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I139" s="2"/>
     </row>
@@ -69581,7 +69581,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="H140" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I140" s="2"/>
     </row>
@@ -69608,7 +69608,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I141" s="2"/>
     </row>
@@ -69635,7 +69635,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I142" s="2"/>
     </row>
@@ -69662,7 +69662,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="H143" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I143" s="2"/>
     </row>
@@ -69689,7 +69689,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="H144" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I144" s="2"/>
     </row>
@@ -69716,7 +69716,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="H145" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I145" s="2"/>
     </row>
